--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/石英股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/石英股份.xlsx
@@ -231,11 +231,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -269,24 +269,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,61 +290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +307,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,9 +336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,6 +355,52 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,19 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,19 +549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,18 +597,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,13 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,25 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +657,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,25 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,11 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,26 +778,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,11 +815,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,168 +851,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,9 +1044,6 @@
     <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1056,7 +1053,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,6 +1067,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,16 +1110,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2340,11 +2340,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2356,8 +2356,7 @@
     <col min="5" max="7" width="9.96428571428571" customWidth="1"/>
     <col min="8" max="8" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.96428571428571" customWidth="1"/>
-    <col min="10" max="10" width="20.3839285714286" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
+    <col min="10" max="11" width="20.3839285714286" style="2" customWidth="1"/>
     <col min="12" max="12" width="22.1696428571429" style="2" customWidth="1"/>
     <col min="13" max="14" width="30.0625" customWidth="1"/>
     <col min="15" max="15" width="25.4464285714286" customWidth="1"/>
@@ -2394,18 +2393,18 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="6"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
       <c r="U1" s="25" t="s">
         <v>3</v>
       </c>
@@ -2439,16 +2438,16 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="6"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
       <c r="U2" s="27"/>
       <c r="V2" s="28" t="s">
         <v>7</v>
@@ -2478,14 +2477,14 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2535,22 +2534,22 @@
       <c r="J4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="21" t="s">
         <v>25</v>
       </c>
       <c r="Q4" s="24" t="s">
@@ -2608,12 +2607,12 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
@@ -2664,14 +2663,14 @@
       <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>0.0442</v>
       </c>
-      <c r="K6" s="18">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))</f>
-        <v>-0.479999999999997</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="K6" s="17">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)</f>
+        <v>-0.00746500777604972</v>
+      </c>
+      <c r="L6" s="16">
         <f>I6/(ROW()-5)</f>
         <v>1</v>
       </c>
@@ -2686,7 +2685,7 @@
       <c r="O6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="22" t="s">
         <v>42</v>
       </c>
       <c r="Q6" s="10" t="s">
@@ -2695,11 +2694,11 @@
       <c r="R6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="18" t="str">
+      <c r="S6" s="22" t="str">
         <f>IF(I6/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="T6" s="18" t="str">
+      <c r="T6" s="22" t="str">
         <f>IF(SUM($M$6:$M6)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
@@ -2736,9 +2735,9 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -2772,9 +2771,9 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -2808,9 +2807,9 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -2844,9 +2843,9 @@
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="17"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -2880,9 +2879,9 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -2916,9 +2915,9 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="17"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -2952,9 +2951,9 @@
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -2988,9 +2987,9 @@
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -3024,9 +3023,9 @@
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -3060,9 +3059,9 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -3096,9 +3095,9 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -3132,9 +3131,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -3168,9 +3167,9 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -3204,9 +3203,9 @@
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -3240,9 +3239,9 @@
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3276,9 +3275,9 @@
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -3312,9 +3311,9 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -3348,9 +3347,9 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -3384,9 +3383,9 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -3420,9 +3419,9 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="17"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -3456,9 +3455,9 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="17"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -3492,9 +3491,9 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="17"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -3528,9 +3527,9 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="17"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -3564,9 +3563,9 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="17"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -3600,9 +3599,9 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="17"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -3636,9 +3635,9 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="17"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -3672,9 +3671,9 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="17"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -3708,9 +3707,9 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="17"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -3744,9 +3743,9 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="17"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -3780,9 +3779,9 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="17"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -3816,9 +3815,9 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="17"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -3852,9 +3851,9 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="17"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -3888,9 +3887,9 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="17"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -3924,9 +3923,9 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -3960,9 +3959,9 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="17"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -3996,9 +3995,9 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="17"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
@@ -4032,9 +4031,9 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="17"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -4068,9 +4067,9 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="17"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -4104,9 +4103,9 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="17"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -4140,9 +4139,9 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="17"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -4176,9 +4175,9 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="17"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -4212,9 +4211,9 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="17"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -4248,9 +4247,9 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="17"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -4284,9 +4283,9 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="17"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -4320,9 +4319,9 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="17"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -4356,9 +4355,9 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="17"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -4392,9 +4391,9 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="17"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -4428,9 +4427,9 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="17"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -4464,9 +4463,9 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="17"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -4500,9 +4499,9 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="17"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -4536,9 +4535,9 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="17"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -4572,9 +4571,9 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="17"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -4608,9 +4607,9 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="17"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -4644,9 +4643,9 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="17"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -4680,9 +4679,9 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="17"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -4716,9 +4715,9 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="17"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
@@ -4752,9 +4751,9 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="17"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
@@ -4788,9 +4787,9 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="17"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -4824,9 +4823,9 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="17"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
@@ -4860,9 +4859,9 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="17"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
@@ -4896,9 +4895,9 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="17"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -4932,9 +4931,9 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="17"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -4968,9 +4967,9 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="17"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
@@ -5004,9 +5003,9 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="17"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
@@ -5040,9 +5039,9 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="17"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
@@ -5076,9 +5075,9 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="17"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -5112,9 +5111,9 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="17"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -5148,9 +5147,9 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="17"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -5184,9 +5183,9 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="17"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -5220,9 +5219,9 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="17"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -5256,9 +5255,9 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="17"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -5292,9 +5291,9 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="17"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -5328,9 +5327,9 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="17"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -5364,9 +5363,9 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="17"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -5400,9 +5399,9 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="17"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -5436,9 +5435,9 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="17"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -5472,9 +5471,9 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="17"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -5508,9 +5507,9 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="17"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -5544,9 +5543,9 @@
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="17"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -5580,9 +5579,9 @@
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="17"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
@@ -5616,9 +5615,9 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="17"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
@@ -5652,9 +5651,9 @@
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="17"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -5688,9 +5687,9 @@
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="17"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
@@ -5724,9 +5723,9 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="17"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -5760,9 +5759,9 @@
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="17"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -5796,9 +5795,9 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="17"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -5832,9 +5831,9 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="17"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
@@ -5868,9 +5867,9 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="17"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -5904,9 +5903,9 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="17"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -5940,9 +5939,9 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="17"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -5976,9 +5975,9 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="17"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
@@ -6012,9 +6011,9 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="17"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -6048,9 +6047,9 @@
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="17"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -6084,9 +6083,9 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="17"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -6120,9 +6119,9 @@
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="17"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
@@ -6156,9 +6155,9 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="17"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
@@ -6192,9 +6191,9 @@
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="17"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
@@ -6228,9 +6227,9 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="17"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
@@ -6264,9 +6263,9 @@
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="17"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
@@ -6300,9 +6299,9 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="17"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
@@ -6336,9 +6335,9 @@
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="17"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
@@ -6372,9 +6371,9 @@
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="17"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
@@ -6408,9 +6407,9 @@
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="17"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
@@ -6444,9 +6443,9 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="17"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
@@ -6480,9 +6479,9 @@
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="17"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
@@ -6516,9 +6515,9 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="17"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -6552,9 +6551,9 @@
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="17"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
@@ -6588,9 +6587,9 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="17"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
@@ -6624,9 +6623,9 @@
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="17"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
@@ -6658,7 +6657,7 @@
       <c r="G116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="40"/>
-      <c r="K116" s="1"/>
+      <c r="K116" s="40"/>
       <c r="L116" s="40"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -6680,7 +6679,7 @@
       <c r="G117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="40"/>
-      <c r="K117" s="1"/>
+      <c r="K117" s="40"/>
       <c r="L117" s="40"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
@@ -6702,7 +6701,7 @@
       <c r="G118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="40"/>
-      <c r="K118" s="1"/>
+      <c r="K118" s="40"/>
       <c r="L118" s="40"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -6724,7 +6723,7 @@
       <c r="G119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="40"/>
-      <c r="K119" s="1"/>
+      <c r="K119" s="40"/>
       <c r="L119" s="40"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -6746,7 +6745,7 @@
       <c r="G120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="40"/>
-      <c r="K120" s="1"/>
+      <c r="K120" s="40"/>
       <c r="L120" s="40"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -6768,7 +6767,7 @@
       <c r="G121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="40"/>
-      <c r="K121" s="1"/>
+      <c r="K121" s="40"/>
       <c r="L121" s="40"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -6790,7 +6789,7 @@
       <c r="G122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="40"/>
-      <c r="K122" s="1"/>
+      <c r="K122" s="40"/>
       <c r="L122" s="40"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -6812,7 +6811,7 @@
       <c r="G123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="40"/>
-      <c r="K123" s="1"/>
+      <c r="K123" s="40"/>
       <c r="L123" s="40"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -6834,7 +6833,7 @@
       <c r="G124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="40"/>
-      <c r="K124" s="1"/>
+      <c r="K124" s="40"/>
       <c r="L124" s="40"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -6856,7 +6855,7 @@
       <c r="G125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="40"/>
-      <c r="K125" s="1"/>
+      <c r="K125" s="40"/>
       <c r="L125" s="40"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
@@ -6878,7 +6877,7 @@
       <c r="G126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="40"/>
-      <c r="K126" s="1"/>
+      <c r="K126" s="40"/>
       <c r="L126" s="40"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -6900,7 +6899,7 @@
       <c r="G127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="40"/>
-      <c r="K127" s="1"/>
+      <c r="K127" s="40"/>
       <c r="L127" s="40"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -6922,7 +6921,7 @@
       <c r="G128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="40"/>
-      <c r="K128" s="1"/>
+      <c r="K128" s="40"/>
       <c r="L128" s="40"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -6944,7 +6943,7 @@
       <c r="G129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="40"/>
-      <c r="K129" s="1"/>
+      <c r="K129" s="40"/>
       <c r="L129" s="40"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -6966,7 +6965,7 @@
       <c r="G130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="40"/>
-      <c r="K130" s="1"/>
+      <c r="K130" s="40"/>
       <c r="L130" s="40"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
@@ -6988,7 +6987,7 @@
       <c r="G131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="40"/>
-      <c r="K131" s="1"/>
+      <c r="K131" s="40"/>
       <c r="L131" s="40"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -7010,7 +7009,7 @@
       <c r="G132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="40"/>
-      <c r="K132" s="1"/>
+      <c r="K132" s="40"/>
       <c r="L132" s="40"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
@@ -7032,7 +7031,7 @@
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="40"/>
-      <c r="K133" s="1"/>
+      <c r="K133" s="40"/>
       <c r="L133" s="40"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
@@ -7054,7 +7053,7 @@
       <c r="G134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="40"/>
-      <c r="K134" s="1"/>
+      <c r="K134" s="40"/>
       <c r="L134" s="40"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
@@ -7076,7 +7075,7 @@
       <c r="G135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="40"/>
-      <c r="K135" s="1"/>
+      <c r="K135" s="40"/>
       <c r="L135" s="40"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -7098,7 +7097,7 @@
       <c r="G136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="40"/>
-      <c r="K136" s="1"/>
+      <c r="K136" s="40"/>
       <c r="L136" s="40"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -7120,7 +7119,7 @@
       <c r="G137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="40"/>
-      <c r="K137" s="1"/>
+      <c r="K137" s="40"/>
       <c r="L137" s="40"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -7142,7 +7141,7 @@
       <c r="G138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="40"/>
-      <c r="K138" s="1"/>
+      <c r="K138" s="40"/>
       <c r="L138" s="40"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -7164,7 +7163,7 @@
       <c r="G139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="40"/>
-      <c r="K139" s="1"/>
+      <c r="K139" s="40"/>
       <c r="L139" s="40"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -7186,7 +7185,7 @@
       <c r="G140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="40"/>
-      <c r="K140" s="1"/>
+      <c r="K140" s="40"/>
       <c r="L140" s="40"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -7208,7 +7207,7 @@
       <c r="G141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="40"/>
-      <c r="K141" s="1"/>
+      <c r="K141" s="40"/>
       <c r="L141" s="40"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
@@ -7230,7 +7229,7 @@
       <c r="G142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="40"/>
-      <c r="K142" s="1"/>
+      <c r="K142" s="40"/>
       <c r="L142" s="40"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
@@ -7252,7 +7251,7 @@
       <c r="G143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="40"/>
-      <c r="K143" s="1"/>
+      <c r="K143" s="40"/>
       <c r="L143" s="40"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
@@ -7274,7 +7273,7 @@
       <c r="G144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="40"/>
-      <c r="K144" s="1"/>
+      <c r="K144" s="40"/>
       <c r="L144" s="40"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
@@ -7296,7 +7295,7 @@
       <c r="G145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="40"/>
-      <c r="K145" s="1"/>
+      <c r="K145" s="40"/>
       <c r="L145" s="40"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
@@ -7318,7 +7317,7 @@
       <c r="G146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="40"/>
-      <c r="K146" s="1"/>
+      <c r="K146" s="40"/>
       <c r="L146" s="40"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -7340,7 +7339,7 @@
       <c r="G147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="40"/>
-      <c r="K147" s="1"/>
+      <c r="K147" s="40"/>
       <c r="L147" s="40"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
@@ -7362,7 +7361,7 @@
       <c r="G148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="40"/>
-      <c r="K148" s="1"/>
+      <c r="K148" s="40"/>
       <c r="L148" s="40"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
@@ -7384,7 +7383,7 @@
       <c r="G149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="40"/>
-      <c r="K149" s="1"/>
+      <c r="K149" s="40"/>
       <c r="L149" s="40"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
@@ -7406,7 +7405,7 @@
       <c r="G150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="40"/>
-      <c r="K150" s="1"/>
+      <c r="K150" s="40"/>
       <c r="L150" s="40"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
@@ -7428,7 +7427,7 @@
       <c r="G151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="40"/>
-      <c r="K151" s="1"/>
+      <c r="K151" s="40"/>
       <c r="L151" s="40"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
@@ -7450,7 +7449,7 @@
       <c r="G152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="40"/>
-      <c r="K152" s="1"/>
+      <c r="K152" s="40"/>
       <c r="L152" s="40"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -7472,7 +7471,7 @@
       <c r="G153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="40"/>
-      <c r="K153" s="1"/>
+      <c r="K153" s="40"/>
       <c r="L153" s="40"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
@@ -7494,7 +7493,7 @@
       <c r="G154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="40"/>
-      <c r="K154" s="1"/>
+      <c r="K154" s="40"/>
       <c r="L154" s="40"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
@@ -7516,7 +7515,7 @@
       <c r="G155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="40"/>
-      <c r="K155" s="1"/>
+      <c r="K155" s="40"/>
       <c r="L155" s="40"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
@@ -7538,7 +7537,7 @@
       <c r="G156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="40"/>
-      <c r="K156" s="1"/>
+      <c r="K156" s="40"/>
       <c r="L156" s="40"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
@@ -7560,7 +7559,7 @@
       <c r="G157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="40"/>
-      <c r="K157" s="1"/>
+      <c r="K157" s="40"/>
       <c r="L157" s="40"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
@@ -7582,7 +7581,7 @@
       <c r="G158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="40"/>
-      <c r="K158" s="1"/>
+      <c r="K158" s="40"/>
       <c r="L158" s="40"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
@@ -7604,7 +7603,7 @@
       <c r="G159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="40"/>
-      <c r="K159" s="1"/>
+      <c r="K159" s="40"/>
       <c r="L159" s="40"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
@@ -7626,7 +7625,7 @@
       <c r="G160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="40"/>
-      <c r="K160" s="1"/>
+      <c r="K160" s="40"/>
       <c r="L160" s="40"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
@@ -7648,7 +7647,7 @@
       <c r="G161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="40"/>
-      <c r="K161" s="1"/>
+      <c r="K161" s="40"/>
       <c r="L161" s="40"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
@@ -7670,7 +7669,7 @@
       <c r="G162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="40"/>
-      <c r="K162" s="1"/>
+      <c r="K162" s="40"/>
       <c r="L162" s="40"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
@@ -7692,7 +7691,7 @@
       <c r="G163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="40"/>
-      <c r="K163" s="1"/>
+      <c r="K163" s="40"/>
       <c r="L163" s="40"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
@@ -7714,7 +7713,7 @@
       <c r="G164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="40"/>
-      <c r="K164" s="1"/>
+      <c r="K164" s="40"/>
       <c r="L164" s="40"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
@@ -7736,7 +7735,7 @@
       <c r="G165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="40"/>
-      <c r="K165" s="1"/>
+      <c r="K165" s="40"/>
       <c r="L165" s="40"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
@@ -7758,7 +7757,7 @@
       <c r="G166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="40"/>
-      <c r="K166" s="1"/>
+      <c r="K166" s="40"/>
       <c r="L166" s="40"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
@@ -7780,7 +7779,7 @@
       <c r="G167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="40"/>
-      <c r="K167" s="1"/>
+      <c r="K167" s="40"/>
       <c r="L167" s="40"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -7802,7 +7801,7 @@
       <c r="G168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="40"/>
-      <c r="K168" s="1"/>
+      <c r="K168" s="40"/>
       <c r="L168" s="40"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -7824,7 +7823,7 @@
       <c r="G169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="40"/>
-      <c r="K169" s="1"/>
+      <c r="K169" s="40"/>
       <c r="L169" s="40"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -7846,7 +7845,7 @@
       <c r="G170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="40"/>
-      <c r="K170" s="1"/>
+      <c r="K170" s="40"/>
       <c r="L170" s="40"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
@@ -7868,7 +7867,7 @@
       <c r="G171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="40"/>
-      <c r="K171" s="1"/>
+      <c r="K171" s="40"/>
       <c r="L171" s="40"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -7890,7 +7889,7 @@
       <c r="G172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="40"/>
-      <c r="K172" s="1"/>
+      <c r="K172" s="40"/>
       <c r="L172" s="40"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -7912,7 +7911,7 @@
       <c r="G173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="40"/>
-      <c r="K173" s="1"/>
+      <c r="K173" s="40"/>
       <c r="L173" s="40"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -7934,7 +7933,7 @@
       <c r="G174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="40"/>
-      <c r="K174" s="1"/>
+      <c r="K174" s="40"/>
       <c r="L174" s="40"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
@@ -7956,7 +7955,7 @@
       <c r="G175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="40"/>
-      <c r="K175" s="1"/>
+      <c r="K175" s="40"/>
       <c r="L175" s="40"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
@@ -7978,7 +7977,7 @@
       <c r="G176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="40"/>
-      <c r="K176" s="1"/>
+      <c r="K176" s="40"/>
       <c r="L176" s="40"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
@@ -8000,7 +7999,7 @@
       <c r="G177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="40"/>
-      <c r="K177" s="1"/>
+      <c r="K177" s="40"/>
       <c r="L177" s="40"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -8022,7 +8021,7 @@
       <c r="G178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="40"/>
-      <c r="K178" s="1"/>
+      <c r="K178" s="40"/>
       <c r="L178" s="40"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
@@ -8044,7 +8043,7 @@
       <c r="G179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="40"/>
-      <c r="K179" s="1"/>
+      <c r="K179" s="40"/>
       <c r="L179" s="40"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
@@ -8066,7 +8065,7 @@
       <c r="G180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="40"/>
-      <c r="K180" s="1"/>
+      <c r="K180" s="40"/>
       <c r="L180" s="40"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
@@ -8088,7 +8087,7 @@
       <c r="G181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="40"/>
-      <c r="K181" s="1"/>
+      <c r="K181" s="40"/>
       <c r="L181" s="40"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
@@ -8110,7 +8109,7 @@
       <c r="G182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="40"/>
-      <c r="K182" s="1"/>
+      <c r="K182" s="40"/>
       <c r="L182" s="40"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -8132,7 +8131,7 @@
       <c r="G183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="40"/>
-      <c r="K183" s="1"/>
+      <c r="K183" s="40"/>
       <c r="L183" s="40"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
@@ -8154,7 +8153,7 @@
       <c r="G184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="40"/>
-      <c r="K184" s="1"/>
+      <c r="K184" s="40"/>
       <c r="L184" s="40"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -8176,7 +8175,7 @@
       <c r="G185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="40"/>
-      <c r="K185" s="1"/>
+      <c r="K185" s="40"/>
       <c r="L185" s="40"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
@@ -8198,7 +8197,7 @@
       <c r="G186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="40"/>
-      <c r="K186" s="1"/>
+      <c r="K186" s="40"/>
       <c r="L186" s="40"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
@@ -8220,7 +8219,7 @@
       <c r="G187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="40"/>
-      <c r="K187" s="1"/>
+      <c r="K187" s="40"/>
       <c r="L187" s="40"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
@@ -8242,7 +8241,7 @@
       <c r="G188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="40"/>
-      <c r="K188" s="1"/>
+      <c r="K188" s="40"/>
       <c r="L188" s="40"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -8264,7 +8263,7 @@
       <c r="G189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="40"/>
-      <c r="K189" s="1"/>
+      <c r="K189" s="40"/>
       <c r="L189" s="40"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
@@ -8286,7 +8285,7 @@
       <c r="G190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="40"/>
-      <c r="K190" s="1"/>
+      <c r="K190" s="40"/>
       <c r="L190" s="40"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
@@ -8308,7 +8307,7 @@
       <c r="G191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="40"/>
-      <c r="K191" s="1"/>
+      <c r="K191" s="40"/>
       <c r="L191" s="40"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
@@ -8330,7 +8329,7 @@
       <c r="G192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="40"/>
-      <c r="K192" s="1"/>
+      <c r="K192" s="40"/>
       <c r="L192" s="40"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -8352,7 +8351,7 @@
       <c r="G193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="40"/>
-      <c r="K193" s="1"/>
+      <c r="K193" s="40"/>
       <c r="L193" s="40"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -8374,7 +8373,7 @@
       <c r="G194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="40"/>
-      <c r="K194" s="1"/>
+      <c r="K194" s="40"/>
       <c r="L194" s="40"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
@@ -8396,7 +8395,7 @@
       <c r="G195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="40"/>
-      <c r="K195" s="1"/>
+      <c r="K195" s="40"/>
       <c r="L195" s="40"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
@@ -8418,7 +8417,7 @@
       <c r="G196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="40"/>
-      <c r="K196" s="1"/>
+      <c r="K196" s="40"/>
       <c r="L196" s="40"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -8440,7 +8439,7 @@
       <c r="G197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="40"/>
-      <c r="K197" s="1"/>
+      <c r="K197" s="40"/>
       <c r="L197" s="40"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
@@ -8462,7 +8461,7 @@
       <c r="G198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="40"/>
-      <c r="K198" s="1"/>
+      <c r="K198" s="40"/>
       <c r="L198" s="40"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
@@ -8484,7 +8483,7 @@
       <c r="G199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="40"/>
-      <c r="K199" s="1"/>
+      <c r="K199" s="40"/>
       <c r="L199" s="40"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -8506,7 +8505,7 @@
       <c r="G200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="40"/>
-      <c r="K200" s="1"/>
+      <c r="K200" s="40"/>
       <c r="L200" s="40"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
@@ -8528,7 +8527,7 @@
       <c r="G201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="40"/>
-      <c r="K201" s="1"/>
+      <c r="K201" s="40"/>
       <c r="L201" s="40"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -8550,7 +8549,7 @@
       <c r="G202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="40"/>
-      <c r="K202" s="1"/>
+      <c r="K202" s="40"/>
       <c r="L202" s="40"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
@@ -8572,7 +8571,7 @@
       <c r="G203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="40"/>
-      <c r="K203" s="1"/>
+      <c r="K203" s="40"/>
       <c r="L203" s="40"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
@@ -8594,7 +8593,7 @@
       <c r="G204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="40"/>
-      <c r="K204" s="1"/>
+      <c r="K204" s="40"/>
       <c r="L204" s="40"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -8616,7 +8615,7 @@
       <c r="G205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="40"/>
-      <c r="K205" s="1"/>
+      <c r="K205" s="40"/>
       <c r="L205" s="40"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
@@ -8638,7 +8637,7 @@
       <c r="G206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="40"/>
-      <c r="K206" s="1"/>
+      <c r="K206" s="40"/>
       <c r="L206" s="40"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -8660,7 +8659,7 @@
       <c r="G207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="40"/>
-      <c r="K207" s="1"/>
+      <c r="K207" s="40"/>
       <c r="L207" s="40"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -8682,7 +8681,7 @@
       <c r="G208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="40"/>
-      <c r="K208" s="1"/>
+      <c r="K208" s="40"/>
       <c r="L208" s="40"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
@@ -8704,7 +8703,7 @@
       <c r="G209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="40"/>
-      <c r="K209" s="1"/>
+      <c r="K209" s="40"/>
       <c r="L209" s="40"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
@@ -8726,7 +8725,7 @@
       <c r="G210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="40"/>
-      <c r="K210" s="1"/>
+      <c r="K210" s="40"/>
       <c r="L210" s="40"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -8748,7 +8747,7 @@
       <c r="G211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="40"/>
-      <c r="K211" s="1"/>
+      <c r="K211" s="40"/>
       <c r="L211" s="40"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -8770,7 +8769,7 @@
       <c r="G212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="40"/>
-      <c r="K212" s="1"/>
+      <c r="K212" s="40"/>
       <c r="L212" s="40"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
@@ -8792,7 +8791,7 @@
       <c r="G213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="40"/>
-      <c r="K213" s="1"/>
+      <c r="K213" s="40"/>
       <c r="L213" s="40"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
@@ -8814,7 +8813,7 @@
       <c r="G214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="40"/>
-      <c r="K214" s="1"/>
+      <c r="K214" s="40"/>
       <c r="L214" s="40"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
@@ -8836,7 +8835,7 @@
       <c r="G215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="40"/>
-      <c r="K215" s="1"/>
+      <c r="K215" s="40"/>
       <c r="L215" s="40"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
@@ -8858,7 +8857,7 @@
       <c r="G216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="40"/>
-      <c r="K216" s="1"/>
+      <c r="K216" s="40"/>
       <c r="L216" s="40"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
@@ -8880,7 +8879,7 @@
       <c r="G217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="40"/>
-      <c r="K217" s="1"/>
+      <c r="K217" s="40"/>
       <c r="L217" s="40"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
@@ -8902,7 +8901,7 @@
       <c r="G218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="40"/>
-      <c r="K218" s="1"/>
+      <c r="K218" s="40"/>
       <c r="L218" s="40"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
@@ -8924,7 +8923,7 @@
       <c r="G219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="40"/>
-      <c r="K219" s="1"/>
+      <c r="K219" s="40"/>
       <c r="L219" s="40"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
@@ -8946,7 +8945,7 @@
       <c r="G220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="40"/>
-      <c r="K220" s="1"/>
+      <c r="K220" s="40"/>
       <c r="L220" s="40"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -8968,7 +8967,7 @@
       <c r="G221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="40"/>
-      <c r="K221" s="1"/>
+      <c r="K221" s="40"/>
       <c r="L221" s="40"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
@@ -8990,7 +8989,7 @@
       <c r="G222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="40"/>
-      <c r="K222" s="1"/>
+      <c r="K222" s="40"/>
       <c r="L222" s="40"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -9012,7 +9011,7 @@
       <c r="G223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="40"/>
-      <c r="K223" s="1"/>
+      <c r="K223" s="40"/>
       <c r="L223" s="40"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
@@ -9034,7 +9033,7 @@
       <c r="G224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="40"/>
-      <c r="K224" s="1"/>
+      <c r="K224" s="40"/>
       <c r="L224" s="40"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
@@ -9056,7 +9055,7 @@
       <c r="G225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="40"/>
-      <c r="K225" s="1"/>
+      <c r="K225" s="40"/>
       <c r="L225" s="40"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
@@ -9078,7 +9077,7 @@
       <c r="G226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="40"/>
-      <c r="K226" s="1"/>
+      <c r="K226" s="40"/>
       <c r="L226" s="40"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
@@ -9100,7 +9099,7 @@
       <c r="G227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="40"/>
-      <c r="K227" s="1"/>
+      <c r="K227" s="40"/>
       <c r="L227" s="40"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
@@ -9122,7 +9121,7 @@
       <c r="G228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="40"/>
-      <c r="K228" s="1"/>
+      <c r="K228" s="40"/>
       <c r="L228" s="40"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -9144,7 +9143,7 @@
       <c r="G229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="40"/>
-      <c r="K229" s="1"/>
+      <c r="K229" s="40"/>
       <c r="L229" s="40"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
@@ -9166,7 +9165,7 @@
       <c r="G230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="40"/>
-      <c r="K230" s="1"/>
+      <c r="K230" s="40"/>
       <c r="L230" s="40"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -9188,7 +9187,7 @@
       <c r="G231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="40"/>
-      <c r="K231" s="1"/>
+      <c r="K231" s="40"/>
       <c r="L231" s="40"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
@@ -9210,7 +9209,7 @@
       <c r="G232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="40"/>
-      <c r="K232" s="1"/>
+      <c r="K232" s="40"/>
       <c r="L232" s="40"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
@@ -9232,7 +9231,7 @@
       <c r="G233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="40"/>
-      <c r="K233" s="1"/>
+      <c r="K233" s="40"/>
       <c r="L233" s="40"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
@@ -9254,7 +9253,7 @@
       <c r="G234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="40"/>
-      <c r="K234" s="1"/>
+      <c r="K234" s="40"/>
       <c r="L234" s="40"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
@@ -9276,7 +9275,7 @@
       <c r="G235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="40"/>
-      <c r="K235" s="1"/>
+      <c r="K235" s="40"/>
       <c r="L235" s="40"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
@@ -9298,7 +9297,7 @@
       <c r="G236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="40"/>
-      <c r="K236" s="1"/>
+      <c r="K236" s="40"/>
       <c r="L236" s="40"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
@@ -9320,7 +9319,7 @@
       <c r="G237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="40"/>
-      <c r="K237" s="1"/>
+      <c r="K237" s="40"/>
       <c r="L237" s="40"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
@@ -9342,7 +9341,7 @@
       <c r="G238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="40"/>
-      <c r="K238" s="1"/>
+      <c r="K238" s="40"/>
       <c r="L238" s="40"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -9364,7 +9363,7 @@
       <c r="G239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="40"/>
-      <c r="K239" s="1"/>
+      <c r="K239" s="40"/>
       <c r="L239" s="40"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -9386,7 +9385,7 @@
       <c r="G240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="40"/>
-      <c r="K240" s="1"/>
+      <c r="K240" s="40"/>
       <c r="L240" s="40"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -9408,7 +9407,7 @@
       <c r="G241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="40"/>
-      <c r="K241" s="1"/>
+      <c r="K241" s="40"/>
       <c r="L241" s="40"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
@@ -9430,7 +9429,7 @@
       <c r="G242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="40"/>
-      <c r="K242" s="1"/>
+      <c r="K242" s="40"/>
       <c r="L242" s="40"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -9452,7 +9451,7 @@
       <c r="G243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="40"/>
-      <c r="K243" s="1"/>
+      <c r="K243" s="40"/>
       <c r="L243" s="40"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
@@ -9474,7 +9473,7 @@
       <c r="G244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="40"/>
-      <c r="K244" s="1"/>
+      <c r="K244" s="40"/>
       <c r="L244" s="40"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
@@ -9496,7 +9495,7 @@
       <c r="G245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="40"/>
-      <c r="K245" s="1"/>
+      <c r="K245" s="40"/>
       <c r="L245" s="40"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
@@ -9518,7 +9517,7 @@
       <c r="G246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="40"/>
-      <c r="K246" s="1"/>
+      <c r="K246" s="40"/>
       <c r="L246" s="40"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
@@ -9540,7 +9539,7 @@
       <c r="G247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="40"/>
-      <c r="K247" s="1"/>
+      <c r="K247" s="40"/>
       <c r="L247" s="40"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
@@ -9562,7 +9561,7 @@
       <c r="G248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="40"/>
-      <c r="K248" s="1"/>
+      <c r="K248" s="40"/>
       <c r="L248" s="40"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
@@ -9584,7 +9583,7 @@
       <c r="G249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="40"/>
-      <c r="K249" s="1"/>
+      <c r="K249" s="40"/>
       <c r="L249" s="40"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -9606,7 +9605,7 @@
       <c r="G250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="40"/>
-      <c r="K250" s="1"/>
+      <c r="K250" s="40"/>
       <c r="L250" s="40"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
@@ -9628,7 +9627,7 @@
       <c r="G251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="40"/>
-      <c r="K251" s="1"/>
+      <c r="K251" s="40"/>
       <c r="L251" s="40"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
@@ -9650,7 +9649,7 @@
       <c r="G252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="40"/>
-      <c r="K252" s="1"/>
+      <c r="K252" s="40"/>
       <c r="L252" s="40"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
@@ -9672,7 +9671,7 @@
       <c r="G253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="40"/>
-      <c r="K253" s="1"/>
+      <c r="K253" s="40"/>
       <c r="L253" s="40"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
@@ -9694,7 +9693,7 @@
       <c r="G254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="40"/>
-      <c r="K254" s="1"/>
+      <c r="K254" s="40"/>
       <c r="L254" s="40"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
@@ -9716,7 +9715,7 @@
       <c r="G255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="40"/>
-      <c r="K255" s="1"/>
+      <c r="K255" s="40"/>
       <c r="L255" s="40"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
@@ -9738,7 +9737,7 @@
       <c r="G256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="40"/>
-      <c r="K256" s="1"/>
+      <c r="K256" s="40"/>
       <c r="L256" s="40"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
@@ -9760,7 +9759,7 @@
       <c r="G257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="40"/>
-      <c r="K257" s="1"/>
+      <c r="K257" s="40"/>
       <c r="L257" s="40"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
@@ -9782,7 +9781,7 @@
       <c r="G258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="40"/>
-      <c r="K258" s="1"/>
+      <c r="K258" s="40"/>
       <c r="L258" s="40"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
@@ -9804,7 +9803,7 @@
       <c r="G259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="40"/>
-      <c r="K259" s="1"/>
+      <c r="K259" s="40"/>
       <c r="L259" s="40"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
@@ -9826,7 +9825,7 @@
       <c r="G260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="40"/>
-      <c r="K260" s="1"/>
+      <c r="K260" s="40"/>
       <c r="L260" s="40"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
@@ -9848,7 +9847,7 @@
       <c r="G261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="40"/>
-      <c r="K261" s="1"/>
+      <c r="K261" s="40"/>
       <c r="L261" s="40"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -9870,7 +9869,7 @@
       <c r="G262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="40"/>
-      <c r="K262" s="1"/>
+      <c r="K262" s="40"/>
       <c r="L262" s="40"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
@@ -9892,7 +9891,7 @@
       <c r="G263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="40"/>
-      <c r="K263" s="1"/>
+      <c r="K263" s="40"/>
       <c r="L263" s="40"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
@@ -9914,7 +9913,7 @@
       <c r="G264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="40"/>
-      <c r="K264" s="1"/>
+      <c r="K264" s="40"/>
       <c r="L264" s="40"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -9936,7 +9935,7 @@
       <c r="G265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="40"/>
-      <c r="K265" s="1"/>
+      <c r="K265" s="40"/>
       <c r="L265" s="40"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
@@ -9958,7 +9957,7 @@
       <c r="G266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="40"/>
-      <c r="K266" s="1"/>
+      <c r="K266" s="40"/>
       <c r="L266" s="40"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
@@ -9980,7 +9979,7 @@
       <c r="G267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="40"/>
-      <c r="K267" s="1"/>
+      <c r="K267" s="40"/>
       <c r="L267" s="40"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
@@ -10002,7 +10001,7 @@
       <c r="G268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="40"/>
-      <c r="K268" s="1"/>
+      <c r="K268" s="40"/>
       <c r="L268" s="40"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -10024,7 +10023,7 @@
       <c r="G269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="40"/>
-      <c r="K269" s="1"/>
+      <c r="K269" s="40"/>
       <c r="L269" s="40"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -10046,7 +10045,7 @@
       <c r="G270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="40"/>
-      <c r="K270" s="1"/>
+      <c r="K270" s="40"/>
       <c r="L270" s="40"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
@@ -10068,7 +10067,7 @@
       <c r="G271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="40"/>
-      <c r="K271" s="1"/>
+      <c r="K271" s="40"/>
       <c r="L271" s="40"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
@@ -10090,7 +10089,7 @@
       <c r="G272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="40"/>
-      <c r="K272" s="1"/>
+      <c r="K272" s="40"/>
       <c r="L272" s="40"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
@@ -10112,7 +10111,7 @@
       <c r="G273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="40"/>
-      <c r="K273" s="1"/>
+      <c r="K273" s="40"/>
       <c r="L273" s="40"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
@@ -10134,7 +10133,7 @@
       <c r="G274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="40"/>
-      <c r="K274" s="1"/>
+      <c r="K274" s="40"/>
       <c r="L274" s="40"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -10156,7 +10155,7 @@
       <c r="G275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="40"/>
-      <c r="K275" s="1"/>
+      <c r="K275" s="40"/>
       <c r="L275" s="40"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
@@ -10178,7 +10177,7 @@
       <c r="G276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="40"/>
-      <c r="K276" s="1"/>
+      <c r="K276" s="40"/>
       <c r="L276" s="40"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
@@ -10200,7 +10199,7 @@
       <c r="G277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="40"/>
-      <c r="K277" s="1"/>
+      <c r="K277" s="40"/>
       <c r="L277" s="40"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
@@ -10222,7 +10221,7 @@
       <c r="G278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="40"/>
-      <c r="K278" s="1"/>
+      <c r="K278" s="40"/>
       <c r="L278" s="40"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
@@ -10244,7 +10243,7 @@
       <c r="G279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="40"/>
-      <c r="K279" s="1"/>
+      <c r="K279" s="40"/>
       <c r="L279" s="40"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -10266,7 +10265,7 @@
       <c r="G280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="40"/>
-      <c r="K280" s="1"/>
+      <c r="K280" s="40"/>
       <c r="L280" s="40"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
@@ -10288,7 +10287,7 @@
       <c r="G281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="40"/>
-      <c r="K281" s="1"/>
+      <c r="K281" s="40"/>
       <c r="L281" s="40"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -10310,7 +10309,7 @@
       <c r="G282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="40"/>
-      <c r="K282" s="1"/>
+      <c r="K282" s="40"/>
       <c r="L282" s="40"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
@@ -10332,7 +10331,7 @@
       <c r="G283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="40"/>
-      <c r="K283" s="1"/>
+      <c r="K283" s="40"/>
       <c r="L283" s="40"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
@@ -10354,7 +10353,7 @@
       <c r="G284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="40"/>
-      <c r="K284" s="1"/>
+      <c r="K284" s="40"/>
       <c r="L284" s="40"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
@@ -10376,7 +10375,7 @@
       <c r="G285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="40"/>
-      <c r="K285" s="1"/>
+      <c r="K285" s="40"/>
       <c r="L285" s="40"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
@@ -10398,7 +10397,7 @@
       <c r="G286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="40"/>
-      <c r="K286" s="1"/>
+      <c r="K286" s="40"/>
       <c r="L286" s="40"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
@@ -10420,7 +10419,7 @@
       <c r="G287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="40"/>
-      <c r="K287" s="1"/>
+      <c r="K287" s="40"/>
       <c r="L287" s="40"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
@@ -10442,7 +10441,7 @@
       <c r="G288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="40"/>
-      <c r="K288" s="1"/>
+      <c r="K288" s="40"/>
       <c r="L288" s="40"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -10464,7 +10463,7 @@
       <c r="G289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="40"/>
-      <c r="K289" s="1"/>
+      <c r="K289" s="40"/>
       <c r="L289" s="40"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
@@ -10486,7 +10485,7 @@
       <c r="G290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="40"/>
-      <c r="K290" s="1"/>
+      <c r="K290" s="40"/>
       <c r="L290" s="40"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
@@ -10508,7 +10507,7 @@
       <c r="G291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="40"/>
-      <c r="K291" s="1"/>
+      <c r="K291" s="40"/>
       <c r="L291" s="40"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
@@ -10530,7 +10529,7 @@
       <c r="G292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="40"/>
-      <c r="K292" s="1"/>
+      <c r="K292" s="40"/>
       <c r="L292" s="40"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
@@ -10552,7 +10551,7 @@
       <c r="G293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="40"/>
-      <c r="K293" s="1"/>
+      <c r="K293" s="40"/>
       <c r="L293" s="40"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
@@ -10574,7 +10573,7 @@
       <c r="G294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="40"/>
-      <c r="K294" s="1"/>
+      <c r="K294" s="40"/>
       <c r="L294" s="40"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
@@ -10596,7 +10595,7 @@
       <c r="G295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="40"/>
-      <c r="K295" s="1"/>
+      <c r="K295" s="40"/>
       <c r="L295" s="40"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
@@ -10618,7 +10617,7 @@
       <c r="G296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="40"/>
-      <c r="K296" s="1"/>
+      <c r="K296" s="40"/>
       <c r="L296" s="40"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
@@ -10640,7 +10639,7 @@
       <c r="G297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="40"/>
-      <c r="K297" s="1"/>
+      <c r="K297" s="40"/>
       <c r="L297" s="40"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
@@ -10662,7 +10661,7 @@
       <c r="G298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="40"/>
-      <c r="K298" s="1"/>
+      <c r="K298" s="40"/>
       <c r="L298" s="40"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
@@ -10684,7 +10683,7 @@
       <c r="G299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="40"/>
-      <c r="K299" s="1"/>
+      <c r="K299" s="40"/>
       <c r="L299" s="40"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
@@ -10706,7 +10705,7 @@
       <c r="G300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="40"/>
-      <c r="K300" s="1"/>
+      <c r="K300" s="40"/>
       <c r="L300" s="40"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
@@ -10728,7 +10727,7 @@
       <c r="G301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="40"/>
-      <c r="K301" s="1"/>
+      <c r="K301" s="40"/>
       <c r="L301" s="40"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
@@ -10750,7 +10749,7 @@
       <c r="G302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="40"/>
-      <c r="K302" s="1"/>
+      <c r="K302" s="40"/>
       <c r="L302" s="40"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
@@ -10772,7 +10771,7 @@
       <c r="G303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="40"/>
-      <c r="K303" s="1"/>
+      <c r="K303" s="40"/>
       <c r="L303" s="40"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
@@ -10794,7 +10793,7 @@
       <c r="G304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="40"/>
-      <c r="K304" s="1"/>
+      <c r="K304" s="40"/>
       <c r="L304" s="40"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
@@ -10816,7 +10815,7 @@
       <c r="G305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="40"/>
-      <c r="K305" s="1"/>
+      <c r="K305" s="40"/>
       <c r="L305" s="40"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
@@ -10838,7 +10837,7 @@
       <c r="G306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="40"/>
-      <c r="K306" s="1"/>
+      <c r="K306" s="40"/>
       <c r="L306" s="40"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
@@ -10860,7 +10859,7 @@
       <c r="G307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="40"/>
-      <c r="K307" s="1"/>
+      <c r="K307" s="40"/>
       <c r="L307" s="40"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
@@ -10882,7 +10881,7 @@
       <c r="G308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="40"/>
-      <c r="K308" s="1"/>
+      <c r="K308" s="40"/>
       <c r="L308" s="40"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
@@ -10904,7 +10903,7 @@
       <c r="G309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="40"/>
-      <c r="K309" s="1"/>
+      <c r="K309" s="40"/>
       <c r="L309" s="40"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
@@ -10926,7 +10925,7 @@
       <c r="G310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="40"/>
-      <c r="K310" s="1"/>
+      <c r="K310" s="40"/>
       <c r="L310" s="40"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
@@ -10948,7 +10947,7 @@
       <c r="G311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="40"/>
-      <c r="K311" s="1"/>
+      <c r="K311" s="40"/>
       <c r="L311" s="40"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
@@ -10970,7 +10969,7 @@
       <c r="G312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="40"/>
-      <c r="K312" s="1"/>
+      <c r="K312" s="40"/>
       <c r="L312" s="40"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
@@ -10992,7 +10991,7 @@
       <c r="G313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="40"/>
-      <c r="K313" s="1"/>
+      <c r="K313" s="40"/>
       <c r="L313" s="40"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
@@ -11014,7 +11013,7 @@
       <c r="G314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="40"/>
-      <c r="K314" s="1"/>
+      <c r="K314" s="40"/>
       <c r="L314" s="40"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
@@ -11036,7 +11035,7 @@
       <c r="G315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="40"/>
-      <c r="K315" s="1"/>
+      <c r="K315" s="40"/>
       <c r="L315" s="40"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
@@ -11058,7 +11057,7 @@
       <c r="G316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="40"/>
-      <c r="K316" s="1"/>
+      <c r="K316" s="40"/>
       <c r="L316" s="40"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
@@ -11080,7 +11079,7 @@
       <c r="G317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="40"/>
-      <c r="K317" s="1"/>
+      <c r="K317" s="40"/>
       <c r="L317" s="40"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
@@ -11102,7 +11101,7 @@
       <c r="G318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="40"/>
-      <c r="K318" s="1"/>
+      <c r="K318" s="40"/>
       <c r="L318" s="40"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
@@ -11124,7 +11123,7 @@
       <c r="G319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="40"/>
-      <c r="K319" s="1"/>
+      <c r="K319" s="40"/>
       <c r="L319" s="40"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
@@ -11146,7 +11145,7 @@
       <c r="G320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="40"/>
-      <c r="K320" s="1"/>
+      <c r="K320" s="40"/>
       <c r="L320" s="40"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
@@ -11168,7 +11167,7 @@
       <c r="G321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="40"/>
-      <c r="K321" s="1"/>
+      <c r="K321" s="40"/>
       <c r="L321" s="40"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
@@ -11190,7 +11189,7 @@
       <c r="G322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="40"/>
-      <c r="K322" s="1"/>
+      <c r="K322" s="40"/>
       <c r="L322" s="40"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
@@ -11212,7 +11211,7 @@
       <c r="G323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="40"/>
-      <c r="K323" s="1"/>
+      <c r="K323" s="40"/>
       <c r="L323" s="40"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
@@ -11234,7 +11233,7 @@
       <c r="G324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="40"/>
-      <c r="K324" s="1"/>
+      <c r="K324" s="40"/>
       <c r="L324" s="40"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
@@ -11256,7 +11255,7 @@
       <c r="G325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="40"/>
-      <c r="K325" s="1"/>
+      <c r="K325" s="40"/>
       <c r="L325" s="40"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
@@ -11278,7 +11277,7 @@
       <c r="G326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="40"/>
-      <c r="K326" s="1"/>
+      <c r="K326" s="40"/>
       <c r="L326" s="40"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
@@ -11300,7 +11299,7 @@
       <c r="G327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="40"/>
-      <c r="K327" s="1"/>
+      <c r="K327" s="40"/>
       <c r="L327" s="40"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
@@ -11322,7 +11321,7 @@
       <c r="G328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="40"/>
-      <c r="K328" s="1"/>
+      <c r="K328" s="40"/>
       <c r="L328" s="40"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
@@ -11344,7 +11343,7 @@
       <c r="G329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="40"/>
-      <c r="K329" s="1"/>
+      <c r="K329" s="40"/>
       <c r="L329" s="40"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
@@ -11366,7 +11365,7 @@
       <c r="G330" s="1"/>
       <c r="I330" s="1"/>
       <c r="J330" s="40"/>
-      <c r="K330" s="1"/>
+      <c r="K330" s="40"/>
       <c r="L330" s="40"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
@@ -11388,7 +11387,7 @@
       <c r="G331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="40"/>
-      <c r="K331" s="1"/>
+      <c r="K331" s="40"/>
       <c r="L331" s="40"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
@@ -11410,7 +11409,7 @@
       <c r="G332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="40"/>
-      <c r="K332" s="1"/>
+      <c r="K332" s="40"/>
       <c r="L332" s="40"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
@@ -11432,7 +11431,7 @@
       <c r="G333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="40"/>
-      <c r="K333" s="1"/>
+      <c r="K333" s="40"/>
       <c r="L333" s="40"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
@@ -11454,7 +11453,7 @@
       <c r="G334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="40"/>
-      <c r="K334" s="1"/>
+      <c r="K334" s="40"/>
       <c r="L334" s="40"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
@@ -11476,7 +11475,7 @@
       <c r="G335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="40"/>
-      <c r="K335" s="1"/>
+      <c r="K335" s="40"/>
       <c r="L335" s="40"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
@@ -11498,7 +11497,7 @@
       <c r="G336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="40"/>
-      <c r="K336" s="1"/>
+      <c r="K336" s="40"/>
       <c r="L336" s="40"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
@@ -11520,7 +11519,7 @@
       <c r="G337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="40"/>
-      <c r="K337" s="1"/>
+      <c r="K337" s="40"/>
       <c r="L337" s="40"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
@@ -11542,7 +11541,7 @@
       <c r="G338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="40"/>
-      <c r="K338" s="1"/>
+      <c r="K338" s="40"/>
       <c r="L338" s="40"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
@@ -11564,7 +11563,7 @@
       <c r="G339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="40"/>
-      <c r="K339" s="1"/>
+      <c r="K339" s="40"/>
       <c r="L339" s="40"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
@@ -11586,7 +11585,7 @@
       <c r="G340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="40"/>
-      <c r="K340" s="1"/>
+      <c r="K340" s="40"/>
       <c r="L340" s="40"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
@@ -11608,7 +11607,7 @@
       <c r="G341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="40"/>
-      <c r="K341" s="1"/>
+      <c r="K341" s="40"/>
       <c r="L341" s="40"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
@@ -11630,7 +11629,7 @@
       <c r="G342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="40"/>
-      <c r="K342" s="1"/>
+      <c r="K342" s="40"/>
       <c r="L342" s="40"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
@@ -11652,7 +11651,7 @@
       <c r="G343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="40"/>
-      <c r="K343" s="1"/>
+      <c r="K343" s="40"/>
       <c r="L343" s="40"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
@@ -11674,7 +11673,7 @@
       <c r="G344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="40"/>
-      <c r="K344" s="1"/>
+      <c r="K344" s="40"/>
       <c r="L344" s="40"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
@@ -11696,7 +11695,7 @@
       <c r="G345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="40"/>
-      <c r="K345" s="1"/>
+      <c r="K345" s="40"/>
       <c r="L345" s="40"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
@@ -11718,7 +11717,7 @@
       <c r="G346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="40"/>
-      <c r="K346" s="1"/>
+      <c r="K346" s="40"/>
       <c r="L346" s="40"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
@@ -11740,7 +11739,7 @@
       <c r="G347" s="1"/>
       <c r="I347" s="1"/>
       <c r="J347" s="40"/>
-      <c r="K347" s="1"/>
+      <c r="K347" s="40"/>
       <c r="L347" s="40"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
@@ -11762,7 +11761,7 @@
       <c r="G348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="40"/>
-      <c r="K348" s="1"/>
+      <c r="K348" s="40"/>
       <c r="L348" s="40"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
@@ -11784,7 +11783,7 @@
       <c r="G349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="40"/>
-      <c r="K349" s="1"/>
+      <c r="K349" s="40"/>
       <c r="L349" s="40"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
@@ -11806,7 +11805,7 @@
       <c r="G350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="40"/>
-      <c r="K350" s="1"/>
+      <c r="K350" s="40"/>
       <c r="L350" s="40"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
@@ -11828,7 +11827,7 @@
       <c r="G351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="40"/>
-      <c r="K351" s="1"/>
+      <c r="K351" s="40"/>
       <c r="L351" s="40"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
@@ -11850,7 +11849,7 @@
       <c r="G352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="40"/>
-      <c r="K352" s="1"/>
+      <c r="K352" s="40"/>
       <c r="L352" s="40"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
@@ -11872,7 +11871,7 @@
       <c r="G353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="40"/>
-      <c r="K353" s="1"/>
+      <c r="K353" s="40"/>
       <c r="L353" s="40"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
@@ -11894,7 +11893,7 @@
       <c r="G354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="40"/>
-      <c r="K354" s="1"/>
+      <c r="K354" s="40"/>
       <c r="L354" s="40"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
@@ -11916,7 +11915,7 @@
       <c r="G355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="40"/>
-      <c r="K355" s="1"/>
+      <c r="K355" s="40"/>
       <c r="L355" s="40"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
@@ -11938,7 +11937,7 @@
       <c r="G356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="40"/>
-      <c r="K356" s="1"/>
+      <c r="K356" s="40"/>
       <c r="L356" s="40"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
@@ -11960,7 +11959,7 @@
       <c r="G357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="40"/>
-      <c r="K357" s="1"/>
+      <c r="K357" s="40"/>
       <c r="L357" s="40"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
@@ -11982,7 +11981,7 @@
       <c r="G358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="40"/>
-      <c r="K358" s="1"/>
+      <c r="K358" s="40"/>
       <c r="L358" s="40"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
@@ -12004,7 +12003,7 @@
       <c r="G359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="40"/>
-      <c r="K359" s="1"/>
+      <c r="K359" s="40"/>
       <c r="L359" s="40"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
@@ -12026,7 +12025,7 @@
       <c r="G360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="40"/>
-      <c r="K360" s="1"/>
+      <c r="K360" s="40"/>
       <c r="L360" s="40"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
@@ -12048,7 +12047,7 @@
       <c r="G361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="40"/>
-      <c r="K361" s="1"/>
+      <c r="K361" s="40"/>
       <c r="L361" s="40"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
@@ -12070,7 +12069,7 @@
       <c r="G362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="40"/>
-      <c r="K362" s="1"/>
+      <c r="K362" s="40"/>
       <c r="L362" s="40"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
@@ -12092,7 +12091,7 @@
       <c r="G363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="40"/>
-      <c r="K363" s="1"/>
+      <c r="K363" s="40"/>
       <c r="L363" s="40"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
@@ -12114,7 +12113,7 @@
       <c r="G364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="40"/>
-      <c r="K364" s="1"/>
+      <c r="K364" s="40"/>
       <c r="L364" s="40"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
@@ -12136,7 +12135,7 @@
       <c r="G365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="40"/>
-      <c r="K365" s="1"/>
+      <c r="K365" s="40"/>
       <c r="L365" s="40"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
@@ -12158,7 +12157,7 @@
       <c r="G366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="40"/>
-      <c r="K366" s="1"/>
+      <c r="K366" s="40"/>
       <c r="L366" s="40"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
@@ -12180,7 +12179,7 @@
       <c r="G367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="40"/>
-      <c r="K367" s="1"/>
+      <c r="K367" s="40"/>
       <c r="L367" s="40"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
@@ -12202,7 +12201,7 @@
       <c r="G368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="40"/>
-      <c r="K368" s="1"/>
+      <c r="K368" s="40"/>
       <c r="L368" s="40"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
@@ -12224,7 +12223,7 @@
       <c r="G369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="40"/>
-      <c r="K369" s="1"/>
+      <c r="K369" s="40"/>
       <c r="L369" s="40"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
@@ -12246,7 +12245,7 @@
       <c r="G370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="40"/>
-      <c r="K370" s="1"/>
+      <c r="K370" s="40"/>
       <c r="L370" s="40"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
@@ -12268,7 +12267,7 @@
       <c r="G371" s="1"/>
       <c r="I371" s="1"/>
       <c r="J371" s="40"/>
-      <c r="K371" s="1"/>
+      <c r="K371" s="40"/>
       <c r="L371" s="40"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
@@ -12290,7 +12289,7 @@
       <c r="G372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="40"/>
-      <c r="K372" s="1"/>
+      <c r="K372" s="40"/>
       <c r="L372" s="40"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
@@ -12312,7 +12311,7 @@
       <c r="G373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="40"/>
-      <c r="K373" s="1"/>
+      <c r="K373" s="40"/>
       <c r="L373" s="40"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
@@ -12334,7 +12333,7 @@
       <c r="G374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="40"/>
-      <c r="K374" s="1"/>
+      <c r="K374" s="40"/>
       <c r="L374" s="40"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
@@ -12356,7 +12355,7 @@
       <c r="G375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="40"/>
-      <c r="K375" s="1"/>
+      <c r="K375" s="40"/>
       <c r="L375" s="40"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
@@ -12378,7 +12377,7 @@
       <c r="G376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="40"/>
-      <c r="K376" s="1"/>
+      <c r="K376" s="40"/>
       <c r="L376" s="40"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
@@ -12400,7 +12399,7 @@
       <c r="G377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="40"/>
-      <c r="K377" s="1"/>
+      <c r="K377" s="40"/>
       <c r="L377" s="40"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
@@ -12422,7 +12421,7 @@
       <c r="G378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="40"/>
-      <c r="K378" s="1"/>
+      <c r="K378" s="40"/>
       <c r="L378" s="40"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
@@ -12444,7 +12443,7 @@
       <c r="G379" s="1"/>
       <c r="I379" s="1"/>
       <c r="J379" s="40"/>
-      <c r="K379" s="1"/>
+      <c r="K379" s="40"/>
       <c r="L379" s="40"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
@@ -12466,7 +12465,7 @@
       <c r="G380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="40"/>
-      <c r="K380" s="1"/>
+      <c r="K380" s="40"/>
       <c r="L380" s="40"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
@@ -12488,7 +12487,7 @@
       <c r="G381" s="1"/>
       <c r="I381" s="1"/>
       <c r="J381" s="40"/>
-      <c r="K381" s="1"/>
+      <c r="K381" s="40"/>
       <c r="L381" s="40"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
@@ -12510,7 +12509,7 @@
       <c r="G382" s="1"/>
       <c r="I382" s="1"/>
       <c r="J382" s="40"/>
-      <c r="K382" s="1"/>
+      <c r="K382" s="40"/>
       <c r="L382" s="40"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
@@ -12532,7 +12531,7 @@
       <c r="G383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="40"/>
-      <c r="K383" s="1"/>
+      <c r="K383" s="40"/>
       <c r="L383" s="40"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
@@ -12554,7 +12553,7 @@
       <c r="G384" s="1"/>
       <c r="I384" s="1"/>
       <c r="J384" s="40"/>
-      <c r="K384" s="1"/>
+      <c r="K384" s="40"/>
       <c r="L384" s="40"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
@@ -12576,7 +12575,7 @@
       <c r="G385" s="1"/>
       <c r="I385" s="1"/>
       <c r="J385" s="40"/>
-      <c r="K385" s="1"/>
+      <c r="K385" s="40"/>
       <c r="L385" s="40"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
@@ -12598,7 +12597,7 @@
       <c r="G386" s="1"/>
       <c r="I386" s="1"/>
       <c r="J386" s="40"/>
-      <c r="K386" s="1"/>
+      <c r="K386" s="40"/>
       <c r="L386" s="40"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
@@ -12620,7 +12619,7 @@
       <c r="G387" s="1"/>
       <c r="I387" s="1"/>
       <c r="J387" s="40"/>
-      <c r="K387" s="1"/>
+      <c r="K387" s="40"/>
       <c r="L387" s="40"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
@@ -12642,7 +12641,7 @@
       <c r="G388" s="1"/>
       <c r="I388" s="1"/>
       <c r="J388" s="40"/>
-      <c r="K388" s="1"/>
+      <c r="K388" s="40"/>
       <c r="L388" s="40"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
@@ -12664,7 +12663,7 @@
       <c r="G389" s="1"/>
       <c r="I389" s="1"/>
       <c r="J389" s="40"/>
-      <c r="K389" s="1"/>
+      <c r="K389" s="40"/>
       <c r="L389" s="40"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
@@ -12686,7 +12685,7 @@
       <c r="G390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="40"/>
-      <c r="K390" s="1"/>
+      <c r="K390" s="40"/>
       <c r="L390" s="40"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
@@ -12708,7 +12707,7 @@
       <c r="G391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="40"/>
-      <c r="K391" s="1"/>
+      <c r="K391" s="40"/>
       <c r="L391" s="40"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
@@ -12730,7 +12729,7 @@
       <c r="G392" s="1"/>
       <c r="I392" s="1"/>
       <c r="J392" s="40"/>
-      <c r="K392" s="1"/>
+      <c r="K392" s="40"/>
       <c r="L392" s="40"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
@@ -12752,7 +12751,7 @@
       <c r="G393" s="1"/>
       <c r="I393" s="1"/>
       <c r="J393" s="40"/>
-      <c r="K393" s="1"/>
+      <c r="K393" s="40"/>
       <c r="L393" s="40"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
@@ -12774,7 +12773,7 @@
       <c r="G394" s="1"/>
       <c r="I394" s="1"/>
       <c r="J394" s="40"/>
-      <c r="K394" s="1"/>
+      <c r="K394" s="40"/>
       <c r="L394" s="40"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
@@ -12796,7 +12795,7 @@
       <c r="G395" s="1"/>
       <c r="I395" s="1"/>
       <c r="J395" s="40"/>
-      <c r="K395" s="1"/>
+      <c r="K395" s="40"/>
       <c r="L395" s="40"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
@@ -12818,7 +12817,7 @@
       <c r="G396" s="1"/>
       <c r="I396" s="1"/>
       <c r="J396" s="40"/>
-      <c r="K396" s="1"/>
+      <c r="K396" s="40"/>
       <c r="L396" s="40"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
@@ -12840,7 +12839,7 @@
       <c r="G397" s="1"/>
       <c r="I397" s="1"/>
       <c r="J397" s="40"/>
-      <c r="K397" s="1"/>
+      <c r="K397" s="40"/>
       <c r="L397" s="40"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
@@ -12862,7 +12861,7 @@
       <c r="G398" s="1"/>
       <c r="I398" s="1"/>
       <c r="J398" s="40"/>
-      <c r="K398" s="1"/>
+      <c r="K398" s="40"/>
       <c r="L398" s="40"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
@@ -12884,7 +12883,7 @@
       <c r="G399" s="1"/>
       <c r="I399" s="1"/>
       <c r="J399" s="40"/>
-      <c r="K399" s="1"/>
+      <c r="K399" s="40"/>
       <c r="L399" s="40"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
@@ -12906,7 +12905,7 @@
       <c r="G400" s="1"/>
       <c r="I400" s="1"/>
       <c r="J400" s="40"/>
-      <c r="K400" s="1"/>
+      <c r="K400" s="40"/>
       <c r="L400" s="40"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
@@ -12928,7 +12927,7 @@
       <c r="G401" s="1"/>
       <c r="I401" s="1"/>
       <c r="J401" s="40"/>
-      <c r="K401" s="1"/>
+      <c r="K401" s="40"/>
       <c r="L401" s="40"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
@@ -12950,7 +12949,7 @@
       <c r="G402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="40"/>
-      <c r="K402" s="1"/>
+      <c r="K402" s="40"/>
       <c r="L402" s="40"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
@@ -12972,7 +12971,7 @@
       <c r="G403" s="1"/>
       <c r="I403" s="1"/>
       <c r="J403" s="40"/>
-      <c r="K403" s="1"/>
+      <c r="K403" s="40"/>
       <c r="L403" s="40"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
@@ -12994,7 +12993,7 @@
       <c r="G404" s="1"/>
       <c r="I404" s="1"/>
       <c r="J404" s="40"/>
-      <c r="K404" s="1"/>
+      <c r="K404" s="40"/>
       <c r="L404" s="40"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
@@ -13016,7 +13015,7 @@
       <c r="G405" s="1"/>
       <c r="I405" s="1"/>
       <c r="J405" s="40"/>
-      <c r="K405" s="1"/>
+      <c r="K405" s="40"/>
       <c r="L405" s="40"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
@@ -13038,7 +13037,7 @@
       <c r="G406" s="1"/>
       <c r="I406" s="1"/>
       <c r="J406" s="40"/>
-      <c r="K406" s="1"/>
+      <c r="K406" s="40"/>
       <c r="L406" s="40"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
@@ -13060,7 +13059,7 @@
       <c r="G407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="40"/>
-      <c r="K407" s="1"/>
+      <c r="K407" s="40"/>
       <c r="L407" s="40"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
@@ -13082,7 +13081,7 @@
       <c r="G408" s="1"/>
       <c r="I408" s="1"/>
       <c r="J408" s="40"/>
-      <c r="K408" s="1"/>
+      <c r="K408" s="40"/>
       <c r="L408" s="40"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
@@ -13104,7 +13103,7 @@
       <c r="G409" s="1"/>
       <c r="I409" s="1"/>
       <c r="J409" s="40"/>
-      <c r="K409" s="1"/>
+      <c r="K409" s="40"/>
       <c r="L409" s="40"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
@@ -13126,7 +13125,7 @@
       <c r="G410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="40"/>
-      <c r="K410" s="1"/>
+      <c r="K410" s="40"/>
       <c r="L410" s="40"/>
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
@@ -13148,7 +13147,7 @@
       <c r="G411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="40"/>
-      <c r="K411" s="1"/>
+      <c r="K411" s="40"/>
       <c r="L411" s="40"/>
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
@@ -13170,7 +13169,7 @@
       <c r="G412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="40"/>
-      <c r="K412" s="1"/>
+      <c r="K412" s="40"/>
       <c r="L412" s="40"/>
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
@@ -13192,7 +13191,7 @@
       <c r="G413" s="1"/>
       <c r="I413" s="1"/>
       <c r="J413" s="40"/>
-      <c r="K413" s="1"/>
+      <c r="K413" s="40"/>
       <c r="L413" s="40"/>
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
@@ -13214,7 +13213,7 @@
       <c r="G414" s="1"/>
       <c r="I414" s="1"/>
       <c r="J414" s="40"/>
-      <c r="K414" s="1"/>
+      <c r="K414" s="40"/>
       <c r="L414" s="40"/>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
@@ -13236,7 +13235,7 @@
       <c r="G415" s="1"/>
       <c r="I415" s="1"/>
       <c r="J415" s="40"/>
-      <c r="K415" s="1"/>
+      <c r="K415" s="40"/>
       <c r="L415" s="40"/>
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
@@ -13258,7 +13257,7 @@
       <c r="G416" s="1"/>
       <c r="I416" s="1"/>
       <c r="J416" s="40"/>
-      <c r="K416" s="1"/>
+      <c r="K416" s="40"/>
       <c r="L416" s="40"/>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
@@ -13280,7 +13279,7 @@
       <c r="G417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="40"/>
-      <c r="K417" s="1"/>
+      <c r="K417" s="40"/>
       <c r="L417" s="40"/>
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
@@ -13302,7 +13301,7 @@
       <c r="G418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="40"/>
-      <c r="K418" s="1"/>
+      <c r="K418" s="40"/>
       <c r="L418" s="40"/>
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
@@ -13324,7 +13323,7 @@
       <c r="G419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="40"/>
-      <c r="K419" s="1"/>
+      <c r="K419" s="40"/>
       <c r="L419" s="40"/>
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
@@ -13346,7 +13345,7 @@
       <c r="G420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="40"/>
-      <c r="K420" s="1"/>
+      <c r="K420" s="40"/>
       <c r="L420" s="40"/>
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
@@ -13368,7 +13367,7 @@
       <c r="G421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="40"/>
-      <c r="K421" s="1"/>
+      <c r="K421" s="40"/>
       <c r="L421" s="40"/>
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
@@ -13390,7 +13389,7 @@
       <c r="G422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="40"/>
-      <c r="K422" s="1"/>
+      <c r="K422" s="40"/>
       <c r="L422" s="40"/>
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
@@ -13412,7 +13411,7 @@
       <c r="G423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="40"/>
-      <c r="K423" s="1"/>
+      <c r="K423" s="40"/>
       <c r="L423" s="40"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
@@ -13434,7 +13433,7 @@
       <c r="G424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="40"/>
-      <c r="K424" s="1"/>
+      <c r="K424" s="40"/>
       <c r="L424" s="40"/>
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
@@ -13456,7 +13455,7 @@
       <c r="G425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="40"/>
-      <c r="K425" s="1"/>
+      <c r="K425" s="40"/>
       <c r="L425" s="40"/>
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
@@ -13478,7 +13477,7 @@
       <c r="G426" s="1"/>
       <c r="I426" s="1"/>
       <c r="J426" s="40"/>
-      <c r="K426" s="1"/>
+      <c r="K426" s="40"/>
       <c r="L426" s="40"/>
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
@@ -13500,7 +13499,7 @@
       <c r="G427" s="1"/>
       <c r="I427" s="1"/>
       <c r="J427" s="40"/>
-      <c r="K427" s="1"/>
+      <c r="K427" s="40"/>
       <c r="L427" s="40"/>
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
@@ -13522,7 +13521,7 @@
       <c r="G428" s="1"/>
       <c r="I428" s="1"/>
       <c r="J428" s="40"/>
-      <c r="K428" s="1"/>
+      <c r="K428" s="40"/>
       <c r="L428" s="40"/>
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
@@ -13544,7 +13543,7 @@
       <c r="G429" s="1"/>
       <c r="I429" s="1"/>
       <c r="J429" s="40"/>
-      <c r="K429" s="1"/>
+      <c r="K429" s="40"/>
       <c r="L429" s="40"/>
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
@@ -13566,7 +13565,7 @@
       <c r="G430" s="1"/>
       <c r="I430" s="1"/>
       <c r="J430" s="40"/>
-      <c r="K430" s="1"/>
+      <c r="K430" s="40"/>
       <c r="L430" s="40"/>
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
@@ -13588,7 +13587,7 @@
       <c r="G431" s="1"/>
       <c r="I431" s="1"/>
       <c r="J431" s="40"/>
-      <c r="K431" s="1"/>
+      <c r="K431" s="40"/>
       <c r="L431" s="40"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
@@ -13610,7 +13609,7 @@
       <c r="G432" s="1"/>
       <c r="I432" s="1"/>
       <c r="J432" s="40"/>
-      <c r="K432" s="1"/>
+      <c r="K432" s="40"/>
       <c r="L432" s="40"/>
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
@@ -13632,7 +13631,7 @@
       <c r="G433" s="1"/>
       <c r="I433" s="1"/>
       <c r="J433" s="40"/>
-      <c r="K433" s="1"/>
+      <c r="K433" s="40"/>
       <c r="L433" s="40"/>
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
@@ -13654,7 +13653,7 @@
       <c r="G434" s="1"/>
       <c r="I434" s="1"/>
       <c r="J434" s="40"/>
-      <c r="K434" s="1"/>
+      <c r="K434" s="40"/>
       <c r="L434" s="40"/>
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
@@ -13676,7 +13675,7 @@
       <c r="G435" s="1"/>
       <c r="I435" s="1"/>
       <c r="J435" s="40"/>
-      <c r="K435" s="1"/>
+      <c r="K435" s="40"/>
       <c r="L435" s="40"/>
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
@@ -13698,7 +13697,7 @@
       <c r="G436" s="1"/>
       <c r="I436" s="1"/>
       <c r="J436" s="40"/>
-      <c r="K436" s="1"/>
+      <c r="K436" s="40"/>
       <c r="L436" s="40"/>
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
@@ -13720,7 +13719,7 @@
       <c r="G437" s="1"/>
       <c r="I437" s="1"/>
       <c r="J437" s="40"/>
-      <c r="K437" s="1"/>
+      <c r="K437" s="40"/>
       <c r="L437" s="40"/>
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
@@ -13742,7 +13741,7 @@
       <c r="G438" s="1"/>
       <c r="I438" s="1"/>
       <c r="J438" s="40"/>
-      <c r="K438" s="1"/>
+      <c r="K438" s="40"/>
       <c r="L438" s="40"/>
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
@@ -13764,7 +13763,7 @@
       <c r="G439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="40"/>
-      <c r="K439" s="1"/>
+      <c r="K439" s="40"/>
       <c r="L439" s="40"/>
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
@@ -13786,7 +13785,7 @@
       <c r="G440" s="1"/>
       <c r="I440" s="1"/>
       <c r="J440" s="40"/>
-      <c r="K440" s="1"/>
+      <c r="K440" s="40"/>
       <c r="L440" s="40"/>
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
@@ -13808,7 +13807,7 @@
       <c r="G441" s="1"/>
       <c r="I441" s="1"/>
       <c r="J441" s="40"/>
-      <c r="K441" s="1"/>
+      <c r="K441" s="40"/>
       <c r="L441" s="40"/>
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
@@ -13830,7 +13829,7 @@
       <c r="G442" s="1"/>
       <c r="I442" s="1"/>
       <c r="J442" s="40"/>
-      <c r="K442" s="1"/>
+      <c r="K442" s="40"/>
       <c r="L442" s="40"/>
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
@@ -13852,7 +13851,7 @@
       <c r="G443" s="1"/>
       <c r="I443" s="1"/>
       <c r="J443" s="40"/>
-      <c r="K443" s="1"/>
+      <c r="K443" s="40"/>
       <c r="L443" s="40"/>
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
@@ -13874,7 +13873,7 @@
       <c r="G444" s="1"/>
       <c r="I444" s="1"/>
       <c r="J444" s="40"/>
-      <c r="K444" s="1"/>
+      <c r="K444" s="40"/>
       <c r="L444" s="40"/>
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
@@ -13896,7 +13895,7 @@
       <c r="G445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="40"/>
-      <c r="K445" s="1"/>
+      <c r="K445" s="40"/>
       <c r="L445" s="40"/>
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
@@ -13918,7 +13917,7 @@
       <c r="G446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="40"/>
-      <c r="K446" s="1"/>
+      <c r="K446" s="40"/>
       <c r="L446" s="40"/>
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
@@ -13940,7 +13939,7 @@
       <c r="G447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="40"/>
-      <c r="K447" s="1"/>
+      <c r="K447" s="40"/>
       <c r="L447" s="40"/>
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
@@ -13962,7 +13961,7 @@
       <c r="G448" s="1"/>
       <c r="I448" s="1"/>
       <c r="J448" s="40"/>
-      <c r="K448" s="1"/>
+      <c r="K448" s="40"/>
       <c r="L448" s="40"/>
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
@@ -13984,7 +13983,7 @@
       <c r="G449" s="1"/>
       <c r="I449" s="1"/>
       <c r="J449" s="40"/>
-      <c r="K449" s="1"/>
+      <c r="K449" s="40"/>
       <c r="L449" s="40"/>
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
@@ -14006,7 +14005,7 @@
       <c r="G450" s="1"/>
       <c r="I450" s="1"/>
       <c r="J450" s="40"/>
-      <c r="K450" s="1"/>
+      <c r="K450" s="40"/>
       <c r="L450" s="40"/>
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
@@ -14028,7 +14027,7 @@
       <c r="G451" s="1"/>
       <c r="I451" s="1"/>
       <c r="J451" s="40"/>
-      <c r="K451" s="1"/>
+      <c r="K451" s="40"/>
       <c r="L451" s="40"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
@@ -14050,7 +14049,7 @@
       <c r="G452" s="1"/>
       <c r="I452" s="1"/>
       <c r="J452" s="40"/>
-      <c r="K452" s="1"/>
+      <c r="K452" s="40"/>
       <c r="L452" s="40"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
@@ -14072,7 +14071,7 @@
       <c r="G453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="40"/>
-      <c r="K453" s="1"/>
+      <c r="K453" s="40"/>
       <c r="L453" s="40"/>
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
@@ -14094,7 +14093,7 @@
       <c r="G454" s="1"/>
       <c r="I454" s="1"/>
       <c r="J454" s="40"/>
-      <c r="K454" s="1"/>
+      <c r="K454" s="40"/>
       <c r="L454" s="40"/>
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
@@ -14116,7 +14115,7 @@
       <c r="G455" s="1"/>
       <c r="I455" s="1"/>
       <c r="J455" s="40"/>
-      <c r="K455" s="1"/>
+      <c r="K455" s="40"/>
       <c r="L455" s="40"/>
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
@@ -14138,7 +14137,7 @@
       <c r="G456" s="1"/>
       <c r="I456" s="1"/>
       <c r="J456" s="40"/>
-      <c r="K456" s="1"/>
+      <c r="K456" s="40"/>
       <c r="L456" s="40"/>
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
@@ -14160,7 +14159,7 @@
       <c r="G457" s="1"/>
       <c r="I457" s="1"/>
       <c r="J457" s="40"/>
-      <c r="K457" s="1"/>
+      <c r="K457" s="40"/>
       <c r="L457" s="40"/>
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
@@ -14182,7 +14181,7 @@
       <c r="G458" s="1"/>
       <c r="I458" s="1"/>
       <c r="J458" s="40"/>
-      <c r="K458" s="1"/>
+      <c r="K458" s="40"/>
       <c r="L458" s="40"/>
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
@@ -14204,7 +14203,7 @@
       <c r="G459" s="1"/>
       <c r="I459" s="1"/>
       <c r="J459" s="40"/>
-      <c r="K459" s="1"/>
+      <c r="K459" s="40"/>
       <c r="L459" s="40"/>
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
@@ -14226,7 +14225,7 @@
       <c r="G460" s="1"/>
       <c r="I460" s="1"/>
       <c r="J460" s="40"/>
-      <c r="K460" s="1"/>
+      <c r="K460" s="40"/>
       <c r="L460" s="40"/>
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
@@ -14248,7 +14247,7 @@
       <c r="G461" s="1"/>
       <c r="I461" s="1"/>
       <c r="J461" s="40"/>
-      <c r="K461" s="1"/>
+      <c r="K461" s="40"/>
       <c r="L461" s="40"/>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
@@ -14270,7 +14269,7 @@
       <c r="G462" s="1"/>
       <c r="I462" s="1"/>
       <c r="J462" s="40"/>
-      <c r="K462" s="1"/>
+      <c r="K462" s="40"/>
       <c r="L462" s="40"/>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
@@ -14292,7 +14291,7 @@
       <c r="G463" s="1"/>
       <c r="I463" s="1"/>
       <c r="J463" s="40"/>
-      <c r="K463" s="1"/>
+      <c r="K463" s="40"/>
       <c r="L463" s="40"/>
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
@@ -14314,7 +14313,7 @@
       <c r="G464" s="1"/>
       <c r="I464" s="1"/>
       <c r="J464" s="40"/>
-      <c r="K464" s="1"/>
+      <c r="K464" s="40"/>
       <c r="L464" s="40"/>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
@@ -14336,7 +14335,7 @@
       <c r="G465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="40"/>
-      <c r="K465" s="1"/>
+      <c r="K465" s="40"/>
       <c r="L465" s="40"/>
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
@@ -14358,7 +14357,7 @@
       <c r="G466" s="1"/>
       <c r="I466" s="1"/>
       <c r="J466" s="40"/>
-      <c r="K466" s="1"/>
+      <c r="K466" s="40"/>
       <c r="L466" s="40"/>
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
@@ -14380,7 +14379,7 @@
       <c r="G467" s="1"/>
       <c r="I467" s="1"/>
       <c r="J467" s="40"/>
-      <c r="K467" s="1"/>
+      <c r="K467" s="40"/>
       <c r="L467" s="40"/>
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
@@ -14402,7 +14401,7 @@
       <c r="G468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="40"/>
-      <c r="K468" s="1"/>
+      <c r="K468" s="40"/>
       <c r="L468" s="40"/>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
@@ -14424,7 +14423,7 @@
       <c r="G469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="40"/>
-      <c r="K469" s="1"/>
+      <c r="K469" s="40"/>
       <c r="L469" s="40"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
@@ -14446,7 +14445,7 @@
       <c r="G470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="40"/>
-      <c r="K470" s="1"/>
+      <c r="K470" s="40"/>
       <c r="L470" s="40"/>
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
@@ -14468,7 +14467,7 @@
       <c r="G471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="40"/>
-      <c r="K471" s="1"/>
+      <c r="K471" s="40"/>
       <c r="L471" s="40"/>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
@@ -14490,7 +14489,7 @@
       <c r="G472" s="1"/>
       <c r="I472" s="1"/>
       <c r="J472" s="40"/>
-      <c r="K472" s="1"/>
+      <c r="K472" s="40"/>
       <c r="L472" s="40"/>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
@@ -14512,7 +14511,7 @@
       <c r="G473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="40"/>
-      <c r="K473" s="1"/>
+      <c r="K473" s="40"/>
       <c r="L473" s="40"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
@@ -14534,7 +14533,7 @@
       <c r="G474" s="1"/>
       <c r="I474" s="1"/>
       <c r="J474" s="40"/>
-      <c r="K474" s="1"/>
+      <c r="K474" s="40"/>
       <c r="L474" s="40"/>
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
@@ -14556,7 +14555,7 @@
       <c r="G475" s="1"/>
       <c r="I475" s="1"/>
       <c r="J475" s="40"/>
-      <c r="K475" s="1"/>
+      <c r="K475" s="40"/>
       <c r="L475" s="40"/>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
@@ -14578,7 +14577,7 @@
       <c r="G476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="40"/>
-      <c r="K476" s="1"/>
+      <c r="K476" s="40"/>
       <c r="L476" s="40"/>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
@@ -14600,7 +14599,7 @@
       <c r="G477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="40"/>
-      <c r="K477" s="1"/>
+      <c r="K477" s="40"/>
       <c r="L477" s="40"/>
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
@@ -14622,7 +14621,7 @@
       <c r="G478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="40"/>
-      <c r="K478" s="1"/>
+      <c r="K478" s="40"/>
       <c r="L478" s="40"/>
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
@@ -14644,7 +14643,7 @@
       <c r="G479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="40"/>
-      <c r="K479" s="1"/>
+      <c r="K479" s="40"/>
       <c r="L479" s="40"/>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
@@ -14666,7 +14665,7 @@
       <c r="G480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="40"/>
-      <c r="K480" s="1"/>
+      <c r="K480" s="40"/>
       <c r="L480" s="40"/>
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
@@ -14688,7 +14687,7 @@
       <c r="G481" s="1"/>
       <c r="I481" s="1"/>
       <c r="J481" s="40"/>
-      <c r="K481" s="1"/>
+      <c r="K481" s="40"/>
       <c r="L481" s="40"/>
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
@@ -14710,7 +14709,7 @@
       <c r="G482" s="1"/>
       <c r="I482" s="1"/>
       <c r="J482" s="40"/>
-      <c r="K482" s="1"/>
+      <c r="K482" s="40"/>
       <c r="L482" s="40"/>
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
@@ -14732,7 +14731,7 @@
       <c r="G483" s="1"/>
       <c r="I483" s="1"/>
       <c r="J483" s="40"/>
-      <c r="K483" s="1"/>
+      <c r="K483" s="40"/>
       <c r="L483" s="40"/>
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
@@ -14754,7 +14753,7 @@
       <c r="G484" s="1"/>
       <c r="I484" s="1"/>
       <c r="J484" s="40"/>
-      <c r="K484" s="1"/>
+      <c r="K484" s="40"/>
       <c r="L484" s="40"/>
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
@@ -14776,7 +14775,7 @@
       <c r="G485" s="1"/>
       <c r="I485" s="1"/>
       <c r="J485" s="40"/>
-      <c r="K485" s="1"/>
+      <c r="K485" s="40"/>
       <c r="L485" s="40"/>
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
@@ -14798,7 +14797,7 @@
       <c r="G486" s="1"/>
       <c r="I486" s="1"/>
       <c r="J486" s="40"/>
-      <c r="K486" s="1"/>
+      <c r="K486" s="40"/>
       <c r="L486" s="40"/>
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/石英股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/石英股份.xlsx
@@ -232,10 +232,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -269,6 +269,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -276,7 +283,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,39 +344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,16 +367,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,19 +390,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,26 +404,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,19 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,19 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,19 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,43 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,15 +772,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -789,35 +780,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,153 +816,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/石英股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/石英股份.xlsx
@@ -233,9 +233,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -269,6 +269,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -282,6 +289,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -290,7 +321,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -305,40 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +346,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,16 +381,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,31 +390,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,7 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +561,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,139 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,21 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -782,7 +767,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,52 +837,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,148 +856,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,80 +1209,77 @@
           <cell r="D4" t="str">
             <v>楚天龙</v>
           </cell>
-          <cell r="E4">
-            <v>44523</v>
-          </cell>
-          <cell r="F4">
-            <v>26.2</v>
-          </cell>
-          <cell r="G4">
-            <v>200</v>
-          </cell>
-          <cell r="H4">
-            <v>5</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>5245</v>
-          </cell>
-          <cell r="K4">
-            <v>26.5</v>
-          </cell>
-          <cell r="L4">
-            <v>25.21</v>
-          </cell>
         </row>
         <row r="4">
-          <cell r="Q4">
-            <v>0.232558139534884</v>
+          <cell r="F4">
+            <v>44523</v>
+          </cell>
+          <cell r="G4">
+            <v>26.2</v>
+          </cell>
+          <cell r="H4">
+            <v>200</v>
+          </cell>
+          <cell r="I4">
+            <v>5</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>5245</v>
+          </cell>
+          <cell r="L4">
+            <v>26.5</v>
+          </cell>
+          <cell r="M4">
+            <v>25.21</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="S4">
+          <cell r="R4">
+            <v>0.232558139534884</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="T4">
             <v>0</v>
           </cell>
-          <cell r="T4">
+          <cell r="U4">
             <v>44526</v>
           </cell>
-          <cell r="U4">
+          <cell r="V4">
             <v>24.89</v>
           </cell>
-          <cell r="V4">
+          <cell r="W4">
             <v>100</v>
           </cell>
-          <cell r="W4">
+          <cell r="X4">
             <v>5</v>
           </cell>
-          <cell r="X4">
+          <cell r="Y4">
             <v>2.489</v>
           </cell>
-          <cell r="Y4">
+          <cell r="Z4">
             <v>2481.511</v>
           </cell>
-          <cell r="Z4">
+          <cell r="AA4">
             <v>27.43</v>
           </cell>
-          <cell r="AA4">
+          <cell r="AB4">
             <v>24.74</v>
           </cell>
-          <cell r="AB4">
+          <cell r="AC4">
             <v>0.0557620817843874</v>
           </cell>
-          <cell r="AC4">
+          <cell r="AD4">
             <v>-140.989</v>
           </cell>
-          <cell r="AD4">
+          <cell r="AE4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="AE4" t="e">
+          <cell r="AF4" t="e">
             <v>#DIV/0!</v>
-          </cell>
-          <cell r="AF4" t="str">
-            <v>1.入场时，忽略了距离最高点的距离;
-2.入场时，忽略了成交量的情况。
-3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
           </cell>
         </row>
         <row r="5">
@@ -1291,42 +1288,42 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="S5">
+          <cell r="T5">
             <v>0</v>
           </cell>
-          <cell r="T5">
+          <cell r="U5">
             <v>44531</v>
           </cell>
-          <cell r="U5">
+          <cell r="V5">
             <v>27.7</v>
           </cell>
-          <cell r="V5">
+          <cell r="W5">
             <v>100</v>
           </cell>
-          <cell r="W5">
+          <cell r="X5">
             <v>5</v>
           </cell>
-          <cell r="X5">
+          <cell r="Y5">
             <v>2.77</v>
           </cell>
-          <cell r="Y5">
+          <cell r="Z5">
             <v>2762.23</v>
           </cell>
-          <cell r="Z5">
+          <cell r="AA5">
             <v>28.7</v>
           </cell>
-          <cell r="AA5">
+          <cell r="AB5">
             <v>27.5</v>
           </cell>
-          <cell r="AB5">
+          <cell r="AC5">
             <v>0.166666666666666</v>
           </cell>
-          <cell r="AC5">
+          <cell r="AD5">
             <v>139.73</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AE5" t="e">
+          <cell r="AF5" t="e">
             <v>#N/A</v>
           </cell>
         </row>
@@ -1343,39 +1340,42 @@
           <cell r="D6" t="str">
             <v>同仁堂</v>
           </cell>
-          <cell r="E6">
+          <cell r="E6" t="str">
+            <v>中药</v>
+          </cell>
+          <cell r="F6">
             <v>44523</v>
           </cell>
-          <cell r="F6">
+          <cell r="G6">
             <v>33.73</v>
           </cell>
-          <cell r="G6">
+          <cell r="H6">
             <v>100</v>
           </cell>
-          <cell r="H6">
+          <cell r="I6">
             <v>5</v>
           </cell>
-          <cell r="I6">
+          <cell r="J6">
             <v>0.06746</v>
           </cell>
-          <cell r="J6">
+          <cell r="K6">
             <v>3378.06746</v>
           </cell>
-          <cell r="K6">
+          <cell r="L6">
             <v>35.36</v>
           </cell>
-          <cell r="L6">
+          <cell r="M6">
             <v>33.1</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="Q6">
+          <cell r="R6">
             <v>0.721238938053099</v>
           </cell>
-          <cell r="R6">
+          <cell r="S6">
             <v>34.7</v>
           </cell>
-          <cell r="S6">
+          <cell r="T6">
             <v>-86.9325400000006</v>
           </cell>
         </row>
@@ -1392,39 +1392,41 @@
           <cell r="D7" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E7">
-            <v>44522</v>
-          </cell>
-          <cell r="F7">
-            <v>32.7</v>
-          </cell>
-          <cell r="G7">
-            <v>100</v>
-          </cell>
-          <cell r="H7">
-            <v>5</v>
-          </cell>
-          <cell r="I7">
-            <v>0.0654</v>
-          </cell>
-          <cell r="J7">
-            <v>3275.0654</v>
-          </cell>
-          <cell r="K7">
-            <v>33.9</v>
-          </cell>
-          <cell r="L7">
-            <v>32.49</v>
-          </cell>
         </row>
         <row r="7">
-          <cell r="Q7">
+          <cell r="F7">
+            <v>44522</v>
+          </cell>
+          <cell r="G7">
+            <v>32.7</v>
+          </cell>
+          <cell r="H7">
+            <v>100</v>
+          </cell>
+          <cell r="I7">
+            <v>5</v>
+          </cell>
+          <cell r="J7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="K7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="L7">
+            <v>33.9</v>
+          </cell>
+          <cell r="M7">
+            <v>32.49</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="R7">
             <v>0.851063829787233</v>
           </cell>
-          <cell r="R7">
+          <cell r="S7">
             <v>30.89</v>
           </cell>
-          <cell r="S7">
+          <cell r="T7">
             <v>0</v>
           </cell>
         </row>
@@ -1441,45 +1443,43 @@
           <cell r="D8" t="str">
             <v>明德生物</v>
           </cell>
-          <cell r="E8">
+          <cell r="E8" t="str">
+            <v>医疗器械</v>
+          </cell>
+          <cell r="F8">
             <v>44526</v>
           </cell>
-          <cell r="F8">
+          <cell r="G8">
             <v>72.07</v>
           </cell>
-          <cell r="G8">
+          <cell r="H8">
             <v>100</v>
           </cell>
-          <cell r="H8">
+          <cell r="I8">
             <v>5</v>
           </cell>
-          <cell r="I8">
+          <cell r="J8">
             <v>0</v>
           </cell>
-          <cell r="J8">
+          <cell r="K8">
             <v>7212</v>
           </cell>
-          <cell r="K8">
+          <cell r="L8">
             <v>74.5</v>
           </cell>
-          <cell r="L8">
+          <cell r="M8">
             <v>70.4</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="Q8">
+          <cell r="R8">
             <v>0.592682926829271</v>
           </cell>
-          <cell r="R8">
+          <cell r="S8">
             <v>67.53</v>
           </cell>
-          <cell r="S8">
+          <cell r="T8">
             <v>463.999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AF8" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
         <row r="9">
@@ -1495,77 +1495,76 @@
           <cell r="D9" t="str">
             <v>百龙创园</v>
           </cell>
-          <cell r="E9">
-            <v>44524</v>
-          </cell>
-          <cell r="F9">
-            <v>30.54</v>
-          </cell>
-          <cell r="G9">
-            <v>100</v>
-          </cell>
-          <cell r="H9">
-            <v>5</v>
-          </cell>
-          <cell r="I9">
-            <v>0.06108</v>
-          </cell>
-          <cell r="J9">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="K9">
-            <v>30.72</v>
-          </cell>
-          <cell r="L9">
-            <v>29.33</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="Q9">
-            <v>0.129496402877698</v>
+          <cell r="F9">
+            <v>44524</v>
+          </cell>
+          <cell r="G9">
+            <v>30.54</v>
+          </cell>
+          <cell r="H9">
+            <v>100</v>
+          </cell>
+          <cell r="I9">
+            <v>5</v>
+          </cell>
+          <cell r="J9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="K9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="L9">
+            <v>30.72</v>
+          </cell>
+          <cell r="M9">
+            <v>29.33</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="T9">
-            <v>44525</v>
-          </cell>
-          <cell r="U9">
-            <v>30.15</v>
-          </cell>
-          <cell r="V9">
-            <v>100</v>
-          </cell>
-          <cell r="W9">
-            <v>5</v>
-          </cell>
-          <cell r="X9">
-            <v>3.015</v>
-          </cell>
-          <cell r="Y9">
-            <v>3006.985</v>
-          </cell>
-          <cell r="Z9">
-            <v>30.69</v>
-          </cell>
-          <cell r="AA9">
-            <v>30.01</v>
-          </cell>
-          <cell r="AB9">
-            <v>0.205882352941172</v>
-          </cell>
-          <cell r="AC9">
-            <v>-52.0760799999998</v>
+          <cell r="R9">
+            <v>0.129496402877698</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="AE9" t="e">
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>44525</v>
+          </cell>
+          <cell r="V9">
+            <v>30.15</v>
+          </cell>
+          <cell r="W9">
+            <v>100</v>
+          </cell>
+          <cell r="X9">
+            <v>5</v>
+          </cell>
+          <cell r="Y9">
+            <v>3.015</v>
+          </cell>
+          <cell r="Z9">
+            <v>3006.985</v>
+          </cell>
+          <cell r="AA9">
+            <v>30.69</v>
+          </cell>
+          <cell r="AB9">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="AD9">
+            <v>-52.0760799999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AF9" t="e">
             <v>#DIV/0!</v>
-          </cell>
-          <cell r="AF9" t="str">
-            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
         <row r="10">
@@ -1581,77 +1580,76 @@
           <cell r="D10" t="str">
             <v>万盛股份</v>
           </cell>
-          <cell r="E10">
-            <v>44530</v>
-          </cell>
-          <cell r="F10">
-            <v>29.81</v>
-          </cell>
-          <cell r="G10">
-            <v>100</v>
-          </cell>
-          <cell r="H10">
-            <v>5</v>
-          </cell>
-          <cell r="I10">
-            <v>0.05962</v>
-          </cell>
-          <cell r="J10">
-            <v>2986.05962</v>
-          </cell>
-          <cell r="K10">
-            <v>30.32</v>
-          </cell>
-          <cell r="L10">
-            <v>28.81</v>
-          </cell>
         </row>
         <row r="10">
-          <cell r="Q10">
-            <v>0.337748344370862</v>
+          <cell r="F10">
+            <v>44530</v>
+          </cell>
+          <cell r="G10">
+            <v>29.81</v>
+          </cell>
+          <cell r="H10">
+            <v>100</v>
+          </cell>
+          <cell r="I10">
+            <v>5</v>
+          </cell>
+          <cell r="J10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="K10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="L10">
+            <v>30.32</v>
+          </cell>
+          <cell r="M10">
+            <v>28.81</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="S10">
-            <v>0</v>
-          </cell>
-          <cell r="T10">
-            <v>44533</v>
-          </cell>
-          <cell r="U10">
-            <v>27.83</v>
-          </cell>
-          <cell r="V10">
-            <v>100</v>
-          </cell>
-          <cell r="W10">
-            <v>5</v>
-          </cell>
-          <cell r="X10">
-            <v>2.783</v>
-          </cell>
-          <cell r="Y10">
-            <v>2775.217</v>
-          </cell>
-          <cell r="Z10">
-            <v>28.4</v>
-          </cell>
-          <cell r="AA10">
-            <v>27.44</v>
-          </cell>
-          <cell r="AB10">
-            <v>0.406249999999998</v>
-          </cell>
-          <cell r="AC10">
-            <v>-210.84262</v>
+          <cell r="R10">
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="AE10">
+          <cell r="T10">
+            <v>0</v>
+          </cell>
+          <cell r="U10">
+            <v>44533</v>
+          </cell>
+          <cell r="V10">
+            <v>27.83</v>
+          </cell>
+          <cell r="W10">
+            <v>100</v>
+          </cell>
+          <cell r="X10">
+            <v>5</v>
+          </cell>
+          <cell r="Y10">
+            <v>2.783</v>
+          </cell>
+          <cell r="Z10">
+            <v>2775.217</v>
+          </cell>
+          <cell r="AA10">
+            <v>28.4</v>
+          </cell>
+          <cell r="AB10">
+            <v>27.44</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="AD10">
+            <v>-210.84262</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AF10">
             <v>-5.46810273405137</v>
-          </cell>
-          <cell r="AF10" t="str">
-            <v>1.入场中枢点错误</v>
           </cell>
         </row>
         <row r="11">
@@ -1667,81 +1665,77 @@
           <cell r="D11" t="str">
             <v>双星新材</v>
           </cell>
-          <cell r="E11">
-            <v>44536</v>
-          </cell>
-          <cell r="F11">
-            <v>28.37</v>
-          </cell>
-          <cell r="G11">
-            <v>100</v>
-          </cell>
-          <cell r="H11">
-            <v>5</v>
-          </cell>
-          <cell r="I11">
-            <v>0</v>
-          </cell>
-          <cell r="J11">
-            <v>2842</v>
-          </cell>
-          <cell r="K11">
-            <v>29.7</v>
-          </cell>
-          <cell r="L11">
-            <v>27.69</v>
-          </cell>
         </row>
         <row r="11">
-          <cell r="Q11">
-            <v>0.661691542288557</v>
-          </cell>
-          <cell r="R11">
-            <v>26.31</v>
-          </cell>
-          <cell r="S11">
+          <cell r="F11">
+            <v>44536</v>
+          </cell>
+          <cell r="G11">
+            <v>28.37</v>
+          </cell>
+          <cell r="H11">
+            <v>100</v>
+          </cell>
+          <cell r="I11">
+            <v>5</v>
+          </cell>
+          <cell r="J11">
             <v>0</v>
           </cell>
-          <cell r="T11">
-            <v>44537</v>
-          </cell>
-          <cell r="U11">
-            <v>26.7</v>
-          </cell>
-          <cell r="V11">
-            <v>100</v>
-          </cell>
-          <cell r="W11">
-            <v>5</v>
-          </cell>
-          <cell r="X11">
-            <v>2.67</v>
-          </cell>
-          <cell r="Y11">
-            <v>2662.33</v>
-          </cell>
-          <cell r="Z11">
-            <v>28.18</v>
-          </cell>
-          <cell r="AA11">
-            <v>25.99</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.324200913242009</v>
-          </cell>
-          <cell r="AC11">
-            <v>-179.67</v>
+          <cell r="K11">
+            <v>2842</v>
+          </cell>
+          <cell r="L11">
+            <v>29.7</v>
+          </cell>
+          <cell r="M11">
+            <v>27.69</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="AE11">
+          <cell r="R11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="S11">
+            <v>26.31</v>
+          </cell>
+          <cell r="T11">
+            <v>0</v>
+          </cell>
+          <cell r="U11">
+            <v>44537</v>
+          </cell>
+          <cell r="V11">
+            <v>26.7</v>
+          </cell>
+          <cell r="W11">
+            <v>100</v>
+          </cell>
+          <cell r="X11">
+            <v>5</v>
+          </cell>
+          <cell r="Y11">
+            <v>2.67</v>
+          </cell>
+          <cell r="Z11">
+            <v>2662.33</v>
+          </cell>
+          <cell r="AA11">
+            <v>28.18</v>
+          </cell>
+          <cell r="AB11">
+            <v>25.99</v>
+          </cell>
+          <cell r="AC11">
+            <v>0.324200913242009</v>
+          </cell>
+          <cell r="AD11">
+            <v>-179.67</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AF11">
             <v>-5.11798958014098</v>
-          </cell>
-          <cell r="AF11" t="str">
-            <v>1.宁可错过，不要根据临时计划入场。
-2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
-3.作出出场决定是使用止损线倒逼出场。
-</v>
           </cell>
         </row>
         <row r="12">
@@ -1757,49 +1751,52 @@
           <cell r="D12" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E12">
+          <cell r="E12" t="str">
+            <v>化学制品</v>
+          </cell>
+          <cell r="F12">
             <v>44540</v>
           </cell>
-          <cell r="F12">
+          <cell r="G12">
             <v>37.73</v>
           </cell>
-          <cell r="G12">
+          <cell r="H12">
             <v>200</v>
           </cell>
-          <cell r="H12">
+          <cell r="I12">
             <v>5</v>
           </cell>
-          <cell r="I12">
+          <cell r="J12">
             <v>0.15092</v>
           </cell>
-          <cell r="J12">
+          <cell r="K12">
             <v>7551.15092</v>
           </cell>
-          <cell r="K12">
+          <cell r="L12">
             <v>38.32</v>
           </cell>
-          <cell r="L12">
+          <cell r="M12">
             <v>37.15</v>
           </cell>
-          <cell r="M12">
+          <cell r="N12">
             <v>40.11</v>
           </cell>
-          <cell r="N12">
+          <cell r="O12">
             <v>30.85</v>
           </cell>
-          <cell r="O12">
+          <cell r="P12">
             <v>9.26</v>
           </cell>
-          <cell r="P12">
+          <cell r="Q12">
             <v>33.58</v>
           </cell>
-          <cell r="Q12">
+          <cell r="R12">
             <v>0.504273504273506</v>
           </cell>
-          <cell r="R12">
+          <cell r="S12">
             <v>33.38</v>
           </cell>
-          <cell r="S12">
+          <cell r="T12">
             <v>880.150919999999</v>
           </cell>
         </row>
@@ -1816,49 +1813,52 @@
           <cell r="D13" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E13">
+          <cell r="E13" t="str">
+            <v>化学制品</v>
+          </cell>
+          <cell r="F13">
             <v>44540</v>
           </cell>
-          <cell r="F13">
+          <cell r="G13">
             <v>37.99</v>
           </cell>
-          <cell r="G13">
+          <cell r="H13">
             <v>200</v>
           </cell>
-          <cell r="H13">
+          <cell r="I13">
             <v>5</v>
           </cell>
-          <cell r="I13">
+          <cell r="J13">
             <v>0.15196</v>
           </cell>
-          <cell r="J13">
+          <cell r="K13">
             <v>7603.15196</v>
           </cell>
-          <cell r="K13">
+          <cell r="L13">
             <v>38.32</v>
           </cell>
-          <cell r="L13">
+          <cell r="M13">
             <v>37.15</v>
           </cell>
-          <cell r="M13">
+          <cell r="N13">
             <v>40.11</v>
           </cell>
-          <cell r="N13">
+          <cell r="O13">
             <v>30.85</v>
           </cell>
-          <cell r="O13">
+          <cell r="P13">
             <v>9.26</v>
           </cell>
-          <cell r="P13">
+          <cell r="Q13">
             <v>33.58</v>
           </cell>
-          <cell r="Q13">
+          <cell r="R13">
             <v>0.28205128205128</v>
           </cell>
-          <cell r="R13">
+          <cell r="S13">
             <v>33.38</v>
           </cell>
-          <cell r="S13">
+          <cell r="T13">
             <v>932.15196</v>
           </cell>
         </row>
@@ -1875,49 +1875,52 @@
           <cell r="D14" t="str">
             <v>振华科技</v>
           </cell>
-          <cell r="E14">
+          <cell r="E14" t="str">
+            <v>国防军工</v>
+          </cell>
+          <cell r="F14">
             <v>44540</v>
           </cell>
-          <cell r="F14">
+          <cell r="G14">
             <v>115.97</v>
           </cell>
-          <cell r="G14">
+          <cell r="H14">
             <v>100</v>
           </cell>
-          <cell r="H14">
+          <cell r="I14">
             <v>5</v>
           </cell>
-          <cell r="I14">
+          <cell r="J14">
             <v>0</v>
           </cell>
-          <cell r="J14">
+          <cell r="K14">
             <v>11602</v>
           </cell>
-          <cell r="K14">
+          <cell r="L14">
             <v>118</v>
           </cell>
-          <cell r="L14">
+          <cell r="M14">
             <v>113.58</v>
           </cell>
-          <cell r="M14">
+          <cell r="N14">
             <v>128.61</v>
           </cell>
-          <cell r="N14">
+          <cell r="O14">
             <v>102.72</v>
           </cell>
-          <cell r="O14">
+          <cell r="P14">
             <v>25.89</v>
           </cell>
-          <cell r="P14">
+          <cell r="Q14">
             <v>50.45</v>
           </cell>
-          <cell r="Q14">
+          <cell r="R14">
             <v>0.459276018099548</v>
           </cell>
-          <cell r="R14">
+          <cell r="S14">
             <v>110.4</v>
           </cell>
-          <cell r="S14">
+          <cell r="T14">
             <v>566.999999999999</v>
           </cell>
         </row>
@@ -1934,49 +1937,52 @@
           <cell r="D15" t="str">
             <v>明泰铝业</v>
           </cell>
-          <cell r="E15">
+          <cell r="E15" t="str">
+            <v>工业金属</v>
+          </cell>
+          <cell r="F15">
             <v>44540</v>
           </cell>
-          <cell r="F15">
+          <cell r="G15">
             <v>39.15</v>
           </cell>
-          <cell r="G15">
+          <cell r="H15">
             <v>100</v>
           </cell>
-          <cell r="H15">
+          <cell r="I15">
             <v>5</v>
           </cell>
-          <cell r="I15">
+          <cell r="J15">
             <v>0.0783</v>
           </cell>
-          <cell r="J15">
+          <cell r="K15">
             <v>3920.0783</v>
           </cell>
-          <cell r="K15">
+          <cell r="L15">
             <v>39.16</v>
           </cell>
-          <cell r="L15">
+          <cell r="M15">
             <v>37.55</v>
           </cell>
-          <cell r="M15">
+          <cell r="N15">
             <v>41.07</v>
           </cell>
-          <cell r="N15">
+          <cell r="O15">
             <v>32.21</v>
           </cell>
-          <cell r="O15">
+          <cell r="P15">
             <v>8.86</v>
           </cell>
-          <cell r="P15">
+          <cell r="Q15">
             <v>14.76</v>
           </cell>
-          <cell r="Q15">
+          <cell r="R15">
             <v>0.00621118012422237</v>
           </cell>
-          <cell r="R15">
+          <cell r="S15">
             <v>35.91</v>
           </cell>
-          <cell r="S15">
+          <cell r="T15">
             <v>334.0783</v>
           </cell>
         </row>
@@ -1993,49 +1999,52 @@
           <cell r="D16" t="str">
             <v>石英股份</v>
           </cell>
-          <cell r="E16">
+          <cell r="E16" t="str">
+            <v> 非金属材料</v>
+          </cell>
+          <cell r="F16">
             <v>44540</v>
           </cell>
-          <cell r="F16">
+          <cell r="G16">
             <v>64.3</v>
           </cell>
-          <cell r="G16">
+          <cell r="H16">
             <v>100</v>
           </cell>
-          <cell r="H16">
+          <cell r="I16">
             <v>5</v>
           </cell>
-          <cell r="I16">
+          <cell r="J16">
             <v>0.1286</v>
           </cell>
-          <cell r="J16">
+          <cell r="K16">
             <v>6435.1286</v>
           </cell>
-          <cell r="K16">
+          <cell r="L16">
             <v>64.47</v>
           </cell>
-          <cell r="L16">
+          <cell r="M16">
             <v>59.34</v>
           </cell>
-          <cell r="M16">
+          <cell r="N16">
             <v>69.25</v>
           </cell>
-          <cell r="N16">
+          <cell r="O16">
             <v>52.2</v>
           </cell>
-          <cell r="O16">
+          <cell r="P16">
             <v>17.05</v>
           </cell>
-          <cell r="P16">
+          <cell r="Q16">
             <v>100.55</v>
           </cell>
-          <cell r="Q16">
+          <cell r="R16">
             <v>0.0331384015594546</v>
           </cell>
-          <cell r="R16">
+          <cell r="S16">
             <v>58.51</v>
           </cell>
-          <cell r="S16">
+          <cell r="T16">
             <v>589.1286</v>
           </cell>
         </row>
@@ -2340,11 +2349,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2667,7 +2676,7 @@
         <v>0.0442</v>
       </c>
       <c r="K6" s="17">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)</f>
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10004,7,FALSE))/VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10004,7,FALSE)</f>
         <v>-0.00746500777604972</v>
       </c>
       <c r="L6" s="16">
@@ -2719,7 +2728,7 @@
         <v>58.51</v>
       </c>
       <c r="AG6" s="39">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)</f>
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10005,7,FALSE)</f>
         <v>-5.79</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/石英股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/石英股份.xlsx
@@ -231,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -290,15 +290,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -309,6 +301,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,16 +328,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,16 +366,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,22 +397,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -398,17 +405,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,7 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,25 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +591,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,73 +693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,24 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -840,11 +822,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,139 +871,139 @@
     <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,7 +1219,7 @@
             <v>JG_0000001</v>
           </cell>
           <cell r="B4" t="str">
-            <v>000001</v>
+            <v>JH_00015</v>
           </cell>
           <cell r="C4" t="str">
             <v>003040</v>
@@ -1287,27 +1287,30 @@
             <v>2.489</v>
           </cell>
           <cell r="Y4">
+            <v>0</v>
+          </cell>
+          <cell r="Z4">
             <v>2481.511</v>
           </cell>
-          <cell r="Z4">
+          <cell r="AA4">
             <v>27.43</v>
           </cell>
-          <cell r="AA4">
+          <cell r="AB4">
             <v>24.74</v>
           </cell>
-          <cell r="AB4">
+          <cell r="AC4">
             <v>0.0557620817843874</v>
           </cell>
-          <cell r="AC4">
+          <cell r="AD4">
             <v>-140.989</v>
           </cell>
-          <cell r="AD4">
+          <cell r="AE4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="AE4">
+          <cell r="AF4">
             <v>-0.20859872611465</v>
           </cell>
-          <cell r="AF4" t="str">
+          <cell r="AG4" t="str">
             <v>1.入场时，忽略了距离最高点的距离;
 2.入场时，忽略了成交量的情况。
 3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
@@ -1338,23 +1341,26 @@
             <v>2.77</v>
           </cell>
           <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
             <v>2762.23</v>
           </cell>
-          <cell r="Z5">
+          <cell r="AA5">
             <v>28.7</v>
           </cell>
-          <cell r="AA5">
+          <cell r="AB5">
             <v>27.5</v>
           </cell>
-          <cell r="AB5">
+          <cell r="AC5">
             <v>0.166666666666666</v>
           </cell>
-          <cell r="AC5">
+          <cell r="AD5">
             <v>139.73</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AE5">
+          <cell r="AF5">
             <v>0.238853503184713</v>
           </cell>
         </row>
@@ -1363,7 +1369,7 @@
             <v>JG_0000003</v>
           </cell>
           <cell r="B6" t="str">
-            <v>000002</v>
+            <v>JH_00001</v>
           </cell>
           <cell r="C6">
             <v>600085</v>
@@ -1414,7 +1420,7 @@
             <v>34.7</v>
           </cell>
           <cell r="S6">
-            <v>-86.9325400000006</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -1424,9 +1430,15 @@
           <cell r="Y6">
             <v>0</v>
           </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
-          <cell r="AC6">
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+          <cell r="AE6">
             <v>0</v>
           </cell>
         </row>
@@ -1435,7 +1447,7 @@
             <v>JG_0000004</v>
           </cell>
           <cell r="B7" t="str">
-            <v>000003</v>
+            <v>JH_00002</v>
           </cell>
           <cell r="C7">
             <v>603867</v>
@@ -1504,23 +1516,27 @@
             <v>3.775</v>
           </cell>
           <cell r="Y7">
-            <v>3766.225</v>
+            <v>0.0755</v>
           </cell>
           <cell r="Z7">
+            <v>3766.1495</v>
+          </cell>
+          <cell r="AA7">
             <v>38.83</v>
           </cell>
-          <cell r="AA7">
+          <cell r="AB7">
             <v>36.3</v>
           </cell>
-          <cell r="AB7">
+          <cell r="AC7">
             <v>0.57312252964427</v>
           </cell>
-          <cell r="AC7">
-            <v>491.1596</v>
-          </cell>
-        </row>
-        <row r="7">
+          <cell r="AD7" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE7">
+            <v>491.0841</v>
+          </cell>
+          <cell r="AF7">
             <v>0.569977426636569</v>
           </cell>
         </row>
@@ -1529,7 +1545,7 @@
             <v>JG_0000005</v>
           </cell>
           <cell r="B8" t="str">
-            <v>000004</v>
+            <v>JH_00012</v>
           </cell>
           <cell r="C8" t="str">
             <v>002932</v>
@@ -1580,15 +1596,50 @@
             <v>67.53</v>
           </cell>
           <cell r="S8">
-            <v>463.999999999999</v>
+            <v>0</v>
           </cell>
           <cell r="T8">
             <v>44543</v>
           </cell>
-        </row>
-        <row r="8">
-          <cell r="AF8" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
+          <cell r="U8">
+            <v>72.45</v>
+          </cell>
+          <cell r="V8">
+            <v>100</v>
+          </cell>
+          <cell r="W8">
+            <v>5</v>
+          </cell>
+          <cell r="X8">
+            <v>7.245</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>7232.755</v>
+          </cell>
+          <cell r="AA8">
+            <v>73</v>
+          </cell>
+          <cell r="AB8">
+            <v>71.75</v>
+          </cell>
+          <cell r="AC8">
+            <v>0.560000000000002</v>
+          </cell>
+          <cell r="AD8" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE8">
+            <v>20.755000000001</v>
+          </cell>
+          <cell r="AF8">
+            <v>0.0299448384554775</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
+2.跳空时，不要入场。不然就有可能入场太早。</v>
           </cell>
         </row>
         <row r="9">
@@ -1596,7 +1647,7 @@
             <v>JG_0000006</v>
           </cell>
           <cell r="B9" t="str">
-            <v>000005</v>
+            <v>JH_00014</v>
           </cell>
           <cell r="C9">
             <v>605016</v>
@@ -1664,26 +1715,30 @@
             <v>3.015</v>
           </cell>
           <cell r="Y9">
-            <v>3006.985</v>
+            <v>0.0603</v>
           </cell>
           <cell r="Z9">
+            <v>3006.9247</v>
+          </cell>
+          <cell r="AA9">
             <v>30.69</v>
           </cell>
-          <cell r="AA9">
+          <cell r="AB9">
             <v>30.01</v>
           </cell>
-          <cell r="AB9">
+          <cell r="AC9">
             <v>0.205882352941172</v>
           </cell>
-          <cell r="AC9">
-            <v>-52.0760799999998</v>
-          </cell>
-        </row>
-        <row r="9">
+          <cell r="AD9" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE9">
+            <v>-52.1363799999999</v>
+          </cell>
+          <cell r="AF9">
             <v>-0.0622009569377991</v>
           </cell>
-          <cell r="AF9" t="str">
+          <cell r="AG9" t="str">
             <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
@@ -1692,7 +1747,7 @@
             <v>JG_0000007</v>
           </cell>
           <cell r="B10" t="str">
-            <v>000006</v>
+            <v>JH_00013</v>
           </cell>
           <cell r="C10">
             <v>603010</v>
@@ -1760,26 +1815,30 @@
             <v>2.783</v>
           </cell>
           <cell r="Y10">
-            <v>2775.217</v>
+            <v>0.05566</v>
           </cell>
           <cell r="Z10">
+            <v>2775.16134</v>
+          </cell>
+          <cell r="AA10">
             <v>28.4</v>
           </cell>
-          <cell r="AA10">
+          <cell r="AB10">
             <v>27.44</v>
           </cell>
-          <cell r="AB10">
+          <cell r="AC10">
             <v>0.406249999999998</v>
           </cell>
-          <cell r="AC10">
-            <v>-210.84262</v>
-          </cell>
-        </row>
-        <row r="10">
+          <cell r="AD10" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE10">
+            <v>-210.89828</v>
+          </cell>
+          <cell r="AF10">
             <v>-0.196428571428572</v>
           </cell>
-          <cell r="AF10" t="str">
+          <cell r="AG10" t="str">
             <v>1.入场中枢点错误</v>
           </cell>
         </row>
@@ -1788,7 +1847,7 @@
             <v>JG_0000008</v>
           </cell>
           <cell r="B11" t="str">
-            <v>000035</v>
+            <v>JH_00016</v>
           </cell>
           <cell r="C11" t="str">
             <v>002585</v>
@@ -1857,26 +1916,30 @@
             <v>2.67</v>
           </cell>
           <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
             <v>2662.33</v>
           </cell>
-          <cell r="Z11">
+          <cell r="AA11">
             <v>28.18</v>
           </cell>
-          <cell r="AA11">
+          <cell r="AB11">
             <v>25.99</v>
           </cell>
-          <cell r="AB11">
+          <cell r="AC11">
             <v>0.324200913242009</v>
           </cell>
-          <cell r="AC11">
+          <cell r="AD11" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE11">
             <v>-179.67</v>
           </cell>
-        </row>
-        <row r="11">
-          <cell r="AE11">
+          <cell r="AF11">
             <v>-0.218300653594771</v>
           </cell>
-          <cell r="AF11" t="str">
+          <cell r="AG11" t="str">
             <v>1.宁可错过，不要根据临时计划入场。
 2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
 3.作出出场决定是使用止损线倒逼出场。
@@ -1888,7 +1951,7 @@
             <v>JG_0000009</v>
           </cell>
           <cell r="B12" t="str">
-            <v>000021</v>
+            <v>JH_00011</v>
           </cell>
           <cell r="C12">
             <v>603867</v>
@@ -1936,10 +1999,34 @@
             <v>0.504273504273506</v>
           </cell>
           <cell r="R12">
-            <v>33.38</v>
+            <v>34.68</v>
           </cell>
           <cell r="S12">
-            <v>880.150919999999</v>
+            <v>620.150919999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="X12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>0</v>
+          </cell>
+          <cell r="Z12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AC12" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12">
+            <v>0</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
@@ -1947,7 +2034,7 @@
             <v>JG_0000010</v>
           </cell>
           <cell r="B13" t="str">
-            <v>000027</v>
+            <v>JH_00011</v>
           </cell>
           <cell r="C13">
             <v>603867</v>
@@ -1995,10 +2082,34 @@
             <v>0.28205128205128</v>
           </cell>
           <cell r="R13">
-            <v>33.38</v>
+            <v>34.68</v>
           </cell>
           <cell r="S13">
-            <v>932.15196</v>
+            <v>672.15196</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AC13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
           </cell>
         </row>
         <row r="14">
@@ -2006,7 +2117,7 @@
             <v>JG_0000011</v>
           </cell>
           <cell r="B14" t="str">
-            <v>000028</v>
+            <v>JH_00009</v>
           </cell>
           <cell r="C14" t="str">
             <v>000733</v>
@@ -2057,10 +2168,51 @@
             <v>110.4</v>
           </cell>
           <cell r="S14">
-            <v>566.999999999999</v>
+            <v>0</v>
           </cell>
           <cell r="T14">
             <v>44543</v>
+          </cell>
+          <cell r="U14">
+            <v>111.66</v>
+          </cell>
+          <cell r="V14">
+            <v>100</v>
+          </cell>
+          <cell r="W14">
+            <v>5</v>
+          </cell>
+          <cell r="X14">
+            <v>11.166</v>
+          </cell>
+          <cell r="Y14">
+            <v>2.2332</v>
+          </cell>
+          <cell r="Z14">
+            <v>11147.6008</v>
+          </cell>
+          <cell r="AA14">
+            <v>115.99</v>
+          </cell>
+          <cell r="AB14">
+            <v>110.08</v>
+          </cell>
+          <cell r="AC14">
+            <v>0.267343485617597</v>
+          </cell>
+          <cell r="AD14" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE14">
+            <v>-454.3992</v>
+          </cell>
+          <cell r="AF14">
+            <v>-0.166473541908073</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>1.对交易减少量缺乏关注；
+2.对网球行为缺乏关注；
+3.对低突破高交易量重回低位缺乏关注;</v>
           </cell>
         </row>
         <row r="15">
@@ -2068,7 +2220,7 @@
             <v>JG_0000012</v>
           </cell>
           <cell r="B15" t="str">
-            <v>000029</v>
+            <v>JH_00008</v>
           </cell>
           <cell r="C15">
             <v>601677</v>
@@ -2120,6 +2272,14 @@
           </cell>
           <cell r="S15">
             <v>334.0783</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
           </cell>
         </row>
         <row r="16">
@@ -2127,7 +2287,7 @@
             <v>JG_0000013</v>
           </cell>
           <cell r="B16" t="str">
-            <v>000030</v>
+            <v>JH_00007</v>
           </cell>
           <cell r="C16">
             <v>603688</v>
@@ -2179,6 +2339,14 @@
           </cell>
           <cell r="S16">
             <v>589.1286</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="X16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
@@ -2186,7 +2354,58 @@
             <v>JG_0000014</v>
           </cell>
           <cell r="B17" t="str">
-            <v>000031</v>
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C17">
+            <v>600032</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E17">
+            <v>44543</v>
+          </cell>
+          <cell r="F17">
+            <v>17.01</v>
+          </cell>
+          <cell r="G17">
+            <v>100</v>
+          </cell>
+          <cell r="H17">
+            <v>5</v>
+          </cell>
+          <cell r="I17">
+            <v>0.03402</v>
+          </cell>
+          <cell r="J17">
+            <v>1706.03402</v>
+          </cell>
+          <cell r="K17">
+            <v>17.5</v>
+          </cell>
+          <cell r="L17">
+            <v>16.48</v>
+          </cell>
+          <cell r="M17">
+            <v>18.44</v>
+          </cell>
+          <cell r="N17">
+            <v>14.86</v>
+          </cell>
+          <cell r="O17">
+            <v>3.58</v>
+          </cell>
+          <cell r="P17">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.480392156862744</v>
+          </cell>
+          <cell r="R17">
+            <v>15.5</v>
+          </cell>
+          <cell r="S17">
+            <v>161.03402</v>
           </cell>
         </row>
         <row r="18">
@@ -2194,23 +2413,68 @@
             <v>JG_0000015</v>
           </cell>
           <cell r="B18" t="str">
-            <v>000032</v>
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C18">
+            <v>600032</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E18">
+            <v>44543</v>
+          </cell>
+          <cell r="F18">
+            <v>17.19</v>
+          </cell>
+          <cell r="G18">
+            <v>200</v>
+          </cell>
+          <cell r="H18">
+            <v>5</v>
+          </cell>
+          <cell r="I18">
+            <v>0.06876</v>
+          </cell>
+          <cell r="J18">
+            <v>3443.06876</v>
+          </cell>
+          <cell r="K18">
+            <v>17.5</v>
+          </cell>
+          <cell r="L18">
+            <v>16.48</v>
+          </cell>
+          <cell r="M18">
+            <v>18.44</v>
+          </cell>
+          <cell r="N18">
+            <v>14.86</v>
+          </cell>
+          <cell r="O18">
+            <v>3.58</v>
+          </cell>
+          <cell r="P18">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.30392156862745</v>
+          </cell>
+          <cell r="R18">
+            <v>15.5</v>
+          </cell>
+          <cell r="S18">
+            <v>348.06876</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
             <v>JG_0000016</v>
           </cell>
-          <cell r="B19" t="str">
-            <v>000033</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
             <v>JG_0000017</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>000034</v>
           </cell>
         </row>
       </sheetData>
@@ -2482,11 +2746,11 @@
   <dimension ref="A1:AG484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2933,8 +3197,8 @@
         <f>IF(SUM($M$6:$M7)&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="U7" s="23" t="s">
-        <v>41</v>
+      <c r="U7" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="9"/>
@@ -2955,30 +3219,77 @@
         <v>-5.79</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:33">
       <c r="A8" s="8">
         <v>44544</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="B8" s="9">
+        <v>62.49</v>
+      </c>
+      <c r="C8" s="9">
+        <v>61.8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>63.5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>61</v>
+      </c>
+      <c r="F8" s="9">
+        <v>60.38</v>
+      </c>
+      <c r="G8" s="9">
+        <v>55.33</v>
+      </c>
+      <c r="H8" s="10">
+        <v>102.33</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" s="16">
+        <f>(B8-B7)/B7</f>
+        <v>0.00466237942122185</v>
+      </c>
+      <c r="K8" s="17">
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>-0.0281493001555209</v>
+      </c>
+      <c r="L8" s="16">
+        <f>I8/(ROW()-5)</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M8" s="22">
+        <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="10" t="str">
+        <f>IF(B8&lt;F8,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="26" t="str">
+        <f>IF(I8/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T8" s="26" t="str">
+        <f>IF(SUM($M$6:$M8)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="V8" s="10"/>
       <c r="W8" s="9"/>
       <c r="X8" s="33"/>
@@ -2989,7 +3300,14 @@
       <c r="AC8" s="33"/>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
-      <c r="AF8" s="39"/>
+      <c r="AF8" s="39">
+        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
+        <v>58.51</v>
+      </c>
+      <c r="AG8" s="41">
+        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)</f>
+        <v>-5.79</v>
+      </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="8">
